--- a/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_极光组.xlsx
+++ b/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_极光组.xlsx
@@ -17,7 +17,7 @@
     <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.1.1 新特性|Fix Bug'!$A$1:$V$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.1.1 新特性|Fix Bug'!$A$1:$W$13</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="124">
   <si>
     <t>No</t>
   </si>
@@ -397,18 +397,39 @@
   </si>
   <si>
     <t>金融工作台资方放款定时器优化</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>FSTATION-54</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目复杂度</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>纪维玉、王云飞</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>王云飞</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -520,13 +541,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -851,36 +865,36 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,16 +1105,10 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,18 +1141,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1192,6 +1194,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1638,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W163"/>
+  <dimension ref="A1:X168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1659,20 +1670,21 @@
     <col min="11" max="11" width="10.25" style="49" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="48" customWidth="1"/>
     <col min="13" max="13" width="15.875" style="48" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="48" customWidth="1"/>
-    <col min="15" max="15" width="10" style="49" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="49" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="49" customWidth="1"/>
-    <col min="18" max="18" width="18.625" style="50" customWidth="1"/>
-    <col min="19" max="19" width="12" style="51" customWidth="1"/>
-    <col min="20" max="20" width="17" style="51" customWidth="1"/>
-    <col min="21" max="21" width="14.125" style="51" customWidth="1"/>
-    <col min="22" max="22" width="41.875" style="49" customWidth="1"/>
-    <col min="23" max="23" width="8.875" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="11.875" style="102" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="48" customWidth="1"/>
+    <col min="16" max="16" width="10" style="49" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="49" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="49" customWidth="1"/>
+    <col min="19" max="19" width="18.625" style="50" customWidth="1"/>
+    <col min="20" max="20" width="12" style="51" customWidth="1"/>
+    <col min="21" max="21" width="17" style="51" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="51" customWidth="1"/>
+    <col min="23" max="23" width="41.875" style="49" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="46" customFormat="1" ht="27">
+    <row r="1" spans="1:24" s="46" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -1712,35 +1724,38 @@
       <c r="M1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="P1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="Q1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="R1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="S1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="T1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="U1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="V1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="52" t="s">
+      <c r="W1" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="47" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:24" s="47" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="54">
         <v>1</v>
       </c>
@@ -1778,20 +1793,31 @@
       <c r="M2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80" t="s">
+      <c r="N2" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R2" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="81"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="83"/>
-    </row>
-    <row r="3" spans="1:23" ht="27" customHeight="1">
+      <c r="T2" s="79"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="81"/>
+    </row>
+    <row r="3" spans="1:24" ht="27" customHeight="1">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -1823,25 +1849,36 @@
         <v>42375</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="70" t="s">
         <v>33</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="80" t="s">
+      <c r="N3" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R3" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="85"/>
-      <c r="T3" s="65"/>
+      <c r="T3" s="82"/>
       <c r="U3" s="65"/>
-      <c r="V3" s="66"/>
-    </row>
-    <row r="4" spans="1:23" ht="27" customHeight="1">
+      <c r="V3" s="65"/>
+      <c r="W3" s="66"/>
+    </row>
+    <row r="4" spans="1:24" ht="27" customHeight="1">
       <c r="A4" s="54">
         <v>3</v>
       </c>
@@ -1879,19 +1916,30 @@
       <c r="M4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="80" t="s">
+      <c r="N4" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="P4" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R4" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="85"/>
-      <c r="T4" s="65"/>
+      <c r="T4" s="82"/>
       <c r="U4" s="65"/>
-      <c r="V4" s="66"/>
-    </row>
-    <row r="5" spans="1:23" s="47" customFormat="1" ht="27" customHeight="1">
+      <c r="V4" s="65"/>
+      <c r="W4" s="66"/>
+    </row>
+    <row r="5" spans="1:24" s="47" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="58">
         <v>4</v>
       </c>
@@ -1929,20 +1977,31 @@
       <c r="M5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80" t="s">
+      <c r="N5" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R5" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="85"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="83"/>
-    </row>
-    <row r="6" spans="1:23" s="47" customFormat="1" ht="27" customHeight="1">
+      <c r="T5" s="82"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="81"/>
+    </row>
+    <row r="6" spans="1:24" s="47" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="54">
         <v>5</v>
       </c>
@@ -1980,20 +2039,31 @@
       <c r="M6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="80" t="s">
+      <c r="N6" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="P6" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R6" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="85"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="86"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="80"/>
       <c r="W6" s="83"/>
-    </row>
-    <row r="7" spans="1:23" ht="27" customHeight="1">
+      <c r="X6" s="81"/>
+    </row>
+    <row r="7" spans="1:24" ht="27" customHeight="1">
       <c r="A7" s="58">
         <v>6</v>
       </c>
@@ -2024,26 +2094,37 @@
       <c r="J7" s="57">
         <v>42375</v>
       </c>
-      <c r="K7" s="73"/>
+      <c r="K7" s="71"/>
       <c r="L7" s="69" t="s">
         <v>28</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="74"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="80" t="s">
+      <c r="N7" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q7" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R7" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S7" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="S7" s="85"/>
-      <c r="T7" s="65"/>
+      <c r="T7" s="82"/>
       <c r="U7" s="65"/>
-      <c r="V7" s="66"/>
-    </row>
-    <row r="8" spans="1:23" ht="27" customHeight="1">
+      <c r="V7" s="65"/>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:24" ht="27" customHeight="1">
       <c r="A8" s="54">
         <v>7</v>
       </c>
@@ -2074,26 +2155,37 @@
       <c r="J8" s="57">
         <v>42375</v>
       </c>
-      <c r="K8" s="73"/>
+      <c r="K8" s="71"/>
       <c r="L8" s="69" t="s">
         <v>28</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="74"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="80" t="s">
+      <c r="N8" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R8" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="S8" s="85"/>
-      <c r="T8" s="65"/>
+      <c r="T8" s="82"/>
       <c r="U8" s="65"/>
-      <c r="V8" s="66"/>
-    </row>
-    <row r="9" spans="1:23" s="47" customFormat="1" ht="27" customHeight="1">
+      <c r="V8" s="65"/>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:24" s="47" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="58">
         <v>8</v>
       </c>
@@ -2131,20 +2223,31 @@
       <c r="M9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="80" t="s">
+      <c r="N9" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R9" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="S9" s="88"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="86"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="80"/>
       <c r="W9" s="83"/>
-    </row>
-    <row r="10" spans="1:23" s="47" customFormat="1" ht="27" customHeight="1">
+      <c r="X9" s="81"/>
+    </row>
+    <row r="10" spans="1:24" s="47" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="54">
         <v>9</v>
       </c>
@@ -2182,20 +2285,31 @@
       <c r="M10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="80" t="s">
+      <c r="N10" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q10" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R10" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S10" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="85"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="86"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="80"/>
       <c r="W10" s="83"/>
-    </row>
-    <row r="11" spans="1:23" s="47" customFormat="1" ht="27" customHeight="1">
+      <c r="X10" s="81"/>
+    </row>
+    <row r="11" spans="1:24" s="47" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="58">
         <v>10</v>
       </c>
@@ -2233,20 +2347,31 @@
       <c r="M11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="80" t="s">
+      <c r="N11" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R11" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S11" s="85"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="86"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="80"/>
       <c r="W11" s="83"/>
-    </row>
-    <row r="12" spans="1:23" s="47" customFormat="1" ht="27" customHeight="1">
+      <c r="X11" s="81"/>
+    </row>
+    <row r="12" spans="1:24" s="47" customFormat="1" ht="27" customHeight="1">
       <c r="A12" s="54">
         <v>11</v>
       </c>
@@ -2284,20 +2409,31 @@
       <c r="M12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="80" t="s">
+      <c r="N12" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q12" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R12" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="S12" s="85"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="86"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="80"/>
       <c r="W12" s="83"/>
-    </row>
-    <row r="13" spans="1:23" s="47" customFormat="1" ht="27" customHeight="1">
+      <c r="X12" s="81"/>
+    </row>
+    <row r="13" spans="1:24" s="47" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="58">
         <v>12</v>
       </c>
@@ -2335,20 +2471,31 @@
       <c r="M13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="80" t="s">
+      <c r="N13" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R13" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="S13" s="85"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="86"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="80"/>
       <c r="W13" s="83"/>
-    </row>
-    <row r="14" spans="1:23" ht="27" customHeight="1">
+      <c r="X13" s="81"/>
+    </row>
+    <row r="14" spans="1:24" ht="27" customHeight="1">
       <c r="A14" s="54">
         <v>13</v>
       </c>
@@ -2379,26 +2526,37 @@
       <c r="J14" s="57">
         <v>42375</v>
       </c>
-      <c r="K14" s="73"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="69" t="s">
         <v>50</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="74"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="80" t="s">
+      <c r="N14" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q14" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R14" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S14" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="S14" s="85"/>
-      <c r="T14" s="65"/>
+      <c r="T14" s="82"/>
       <c r="U14" s="65"/>
-      <c r="V14" s="66"/>
-    </row>
-    <row r="15" spans="1:23" ht="24" customHeight="1">
+      <c r="V14" s="65"/>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:24" ht="24" customHeight="1">
       <c r="A15" s="58">
         <v>14</v>
       </c>
@@ -2436,19 +2594,30 @@
       <c r="M15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="80" t="s">
+      <c r="N15" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q15" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R15" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="S15" s="65"/>
       <c r="T15" s="65"/>
       <c r="U15" s="65"/>
-      <c r="V15" s="86"/>
-    </row>
-    <row r="16" spans="1:23" ht="24.75" customHeight="1">
+      <c r="V15" s="65"/>
+      <c r="W15" s="83"/>
+    </row>
+    <row r="16" spans="1:24" ht="24.75" customHeight="1">
       <c r="A16" s="54">
         <v>15</v>
       </c>
@@ -2486,19 +2655,30 @@
       <c r="M16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="80" t="s">
+      <c r="N16" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="P16" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q16" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R16" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S16" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="S16" s="65"/>
       <c r="T16" s="65"/>
       <c r="U16" s="65"/>
-      <c r="V16" s="86"/>
-    </row>
-    <row r="17" spans="1:22" ht="24.75" customHeight="1">
+      <c r="V16" s="65"/>
+      <c r="W16" s="83"/>
+    </row>
+    <row r="17" spans="1:23" ht="24.75" customHeight="1">
       <c r="A17" s="58">
         <v>16</v>
       </c>
@@ -2536,19 +2716,30 @@
       <c r="M17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="80" t="s">
+      <c r="N17" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R17" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S17" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="91"/>
-    </row>
-    <row r="18" spans="1:22" ht="24.75" customHeight="1">
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="87"/>
+    </row>
+    <row r="18" spans="1:23" ht="24.75" customHeight="1">
       <c r="A18" s="54">
         <v>17</v>
       </c>
@@ -2586,19 +2777,30 @@
       <c r="M18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="80" t="s">
+      <c r="N18" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R18" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="91"/>
-    </row>
-    <row r="19" spans="1:22" ht="23.25" customHeight="1">
+      <c r="T18" s="88"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="87"/>
+    </row>
+    <row r="19" spans="1:23" ht="23.25" customHeight="1">
       <c r="A19" s="54">
         <v>18</v>
       </c>
@@ -2636,19 +2838,30 @@
       <c r="M19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="80" t="s">
+      <c r="N19" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R19" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="S19" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="91"/>
-    </row>
-    <row r="20" spans="1:22" ht="16.5">
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="87"/>
+    </row>
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="54"/>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -2662,17 +2875,18 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="69"/>
+      <c r="N20" s="72"/>
       <c r="O20" s="69"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="64"/>
       <c r="R20" s="69"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="91"/>
-    </row>
-    <row r="21" spans="1:22" ht="16.5">
+      <c r="S20" s="69"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="87"/>
+    </row>
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="54"/>
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
@@ -2686,17 +2900,18 @@
       <c r="K21" s="11"/>
       <c r="L21" s="69"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="69"/>
+      <c r="N21" s="72"/>
       <c r="O21" s="69"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="64"/>
       <c r="R21" s="69"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="91"/>
-    </row>
-    <row r="22" spans="1:22" ht="16.5">
+      <c r="S21" s="69"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="87"/>
+    </row>
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="54"/>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
@@ -2710,17 +2925,18 @@
       <c r="K22" s="11"/>
       <c r="L22" s="69"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="69"/>
+      <c r="N22" s="72"/>
       <c r="O22" s="69"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="69"/>
-    </row>
-    <row r="23" spans="1:22" ht="16.5">
+      <c r="P22" s="69"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="69"/>
+    </row>
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="54"/>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -2734,17 +2950,18 @@
       <c r="K23" s="11"/>
       <c r="L23" s="69"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="69"/>
+      <c r="N23" s="72"/>
       <c r="O23" s="69"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="64"/>
       <c r="R23" s="69"/>
-      <c r="S23" s="65"/>
+      <c r="S23" s="69"/>
       <c r="T23" s="65"/>
       <c r="U23" s="65"/>
-      <c r="V23" s="86"/>
-    </row>
-    <row r="24" spans="1:22" ht="16.5">
+      <c r="V23" s="65"/>
+      <c r="W23" s="83"/>
+    </row>
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="54"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -2758,17 +2975,18 @@
       <c r="K24" s="11"/>
       <c r="L24" s="69"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="69"/>
+      <c r="N24" s="72"/>
       <c r="O24" s="69"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="64"/>
       <c r="R24" s="69"/>
-      <c r="S24" s="65"/>
+      <c r="S24" s="69"/>
       <c r="T24" s="65"/>
       <c r="U24" s="65"/>
-      <c r="V24" s="86"/>
-    </row>
-    <row r="25" spans="1:22" ht="16.5">
+      <c r="V24" s="65"/>
+      <c r="W24" s="83"/>
+    </row>
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="54"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -2782,17 +3000,18 @@
       <c r="K25" s="11"/>
       <c r="L25" s="69"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="69"/>
+      <c r="N25" s="72"/>
       <c r="O25" s="69"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="64"/>
       <c r="R25" s="69"/>
-      <c r="S25" s="65"/>
+      <c r="S25" s="69"/>
       <c r="T25" s="65"/>
       <c r="U25" s="65"/>
-      <c r="V25" s="86"/>
-    </row>
-    <row r="26" spans="1:22" ht="16.5">
+      <c r="V25" s="65"/>
+      <c r="W25" s="83"/>
+    </row>
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="54"/>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
@@ -2806,17 +3025,18 @@
       <c r="K26" s="63"/>
       <c r="L26" s="69"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="69"/>
+      <c r="N26" s="72"/>
       <c r="O26" s="69"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="64"/>
       <c r="R26" s="69"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="91"/>
-    </row>
-    <row r="27" spans="1:22" ht="16.5">
+      <c r="S26" s="69"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="87"/>
+    </row>
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="54"/>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
@@ -2830,17 +3050,18 @@
       <c r="K27" s="11"/>
       <c r="L27" s="69"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="69"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="64"/>
       <c r="R27" s="69"/>
-      <c r="S27" s="65"/>
+      <c r="S27" s="69"/>
       <c r="T27" s="65"/>
       <c r="U27" s="65"/>
-      <c r="V27" s="55"/>
-    </row>
-    <row r="28" spans="1:22" ht="16.5">
+      <c r="V27" s="65"/>
+      <c r="W27" s="55"/>
+    </row>
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="54"/>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
@@ -2854,17 +3075,18 @@
       <c r="K28" s="11"/>
       <c r="L28" s="69"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="69"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="64"/>
       <c r="R28" s="69"/>
-      <c r="S28" s="65"/>
+      <c r="S28" s="69"/>
       <c r="T28" s="65"/>
       <c r="U28" s="65"/>
-      <c r="V28" s="86"/>
-    </row>
-    <row r="29" spans="1:22" ht="16.5">
+      <c r="V28" s="65"/>
+      <c r="W28" s="83"/>
+    </row>
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="54"/>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -2878,17 +3100,18 @@
       <c r="K29" s="11"/>
       <c r="L29" s="69"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="69"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="64"/>
       <c r="R29" s="69"/>
-      <c r="S29" s="65"/>
+      <c r="S29" s="69"/>
       <c r="T29" s="65"/>
       <c r="U29" s="65"/>
-      <c r="V29" s="86"/>
-    </row>
-    <row r="30" spans="1:22" ht="16.5">
+      <c r="V29" s="65"/>
+      <c r="W29" s="83"/>
+    </row>
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -2902,17 +3125,18 @@
       <c r="K30" s="11"/>
       <c r="L30" s="69"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="69"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="64"/>
       <c r="R30" s="69"/>
-      <c r="S30" s="65"/>
+      <c r="S30" s="69"/>
       <c r="T30" s="65"/>
       <c r="U30" s="65"/>
-      <c r="V30" s="86"/>
-    </row>
-    <row r="31" spans="1:22" ht="16.5">
+      <c r="V30" s="65"/>
+      <c r="W30" s="83"/>
+    </row>
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="54"/>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -2926,17 +3150,18 @@
       <c r="K31" s="11"/>
       <c r="L31" s="69"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="69"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="64"/>
       <c r="R31" s="69"/>
-      <c r="S31" s="65"/>
+      <c r="S31" s="69"/>
       <c r="T31" s="65"/>
       <c r="U31" s="65"/>
-      <c r="V31" s="86"/>
-    </row>
-    <row r="32" spans="1:22" ht="16.5">
+      <c r="V31" s="65"/>
+      <c r="W31" s="83"/>
+    </row>
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="54"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -2950,17 +3175,18 @@
       <c r="K32" s="11"/>
       <c r="L32" s="69"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="69"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="64"/>
       <c r="R32" s="69"/>
-      <c r="S32" s="65"/>
+      <c r="S32" s="69"/>
       <c r="T32" s="65"/>
       <c r="U32" s="65"/>
-      <c r="V32" s="86"/>
-    </row>
-    <row r="33" spans="1:22" ht="16.5">
+      <c r="V32" s="65"/>
+      <c r="W32" s="83"/>
+    </row>
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="54"/>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
@@ -2974,17 +3200,18 @@
       <c r="K33" s="11"/>
       <c r="L33" s="69"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="69"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="64"/>
       <c r="R33" s="69"/>
-      <c r="S33" s="65"/>
+      <c r="S33" s="69"/>
       <c r="T33" s="65"/>
       <c r="U33" s="65"/>
-      <c r="V33" s="86"/>
-    </row>
-    <row r="34" spans="1:22" ht="16.5">
+      <c r="V33" s="65"/>
+      <c r="W33" s="83"/>
+    </row>
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="54"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
@@ -2998,17 +3225,18 @@
       <c r="K34" s="11"/>
       <c r="L34" s="69"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="69"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="64"/>
       <c r="R34" s="69"/>
-      <c r="S34" s="65"/>
+      <c r="S34" s="69"/>
       <c r="T34" s="65"/>
       <c r="U34" s="65"/>
-      <c r="V34" s="86"/>
-    </row>
-    <row r="35" spans="1:22" ht="16.5">
+      <c r="V34" s="65"/>
+      <c r="W34" s="83"/>
+    </row>
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="54"/>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -3022,17 +3250,18 @@
       <c r="K35" s="11"/>
       <c r="L35" s="69"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="69"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="64"/>
       <c r="R35" s="69"/>
-      <c r="S35" s="65"/>
+      <c r="S35" s="69"/>
       <c r="T35" s="65"/>
       <c r="U35" s="65"/>
-      <c r="V35" s="86"/>
-    </row>
-    <row r="36" spans="1:22" ht="16.5">
+      <c r="V35" s="65"/>
+      <c r="W35" s="83"/>
+    </row>
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="54"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -3046,17 +3275,18 @@
       <c r="K36" s="11"/>
       <c r="L36" s="69"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="69"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="64"/>
       <c r="R36" s="69"/>
-      <c r="S36" s="65"/>
+      <c r="S36" s="69"/>
       <c r="T36" s="65"/>
       <c r="U36" s="65"/>
-      <c r="V36" s="86"/>
-    </row>
-    <row r="37" spans="1:22" ht="16.5">
+      <c r="V36" s="65"/>
+      <c r="W36" s="83"/>
+    </row>
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="54"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
@@ -3070,17 +3300,18 @@
       <c r="K37" s="11"/>
       <c r="L37" s="69"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="69"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="64"/>
       <c r="R37" s="69"/>
-      <c r="S37" s="65"/>
+      <c r="S37" s="69"/>
       <c r="T37" s="65"/>
       <c r="U37" s="65"/>
-      <c r="V37" s="86"/>
-    </row>
-    <row r="38" spans="1:22" ht="16.5">
+      <c r="V37" s="65"/>
+      <c r="W37" s="83"/>
+    </row>
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="54"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
@@ -3094,17 +3325,18 @@
       <c r="K38" s="11"/>
       <c r="L38" s="69"/>
       <c r="M38" s="69"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="86"/>
-    </row>
-    <row r="39" spans="1:22" ht="16.5">
+      <c r="N38" s="72"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="83"/>
+    </row>
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="54"/>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
@@ -3118,17 +3350,18 @@
       <c r="K39" s="11"/>
       <c r="L39" s="69"/>
       <c r="M39" s="69"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="69"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
-      <c r="U39" s="89"/>
-      <c r="V39" s="86"/>
-    </row>
-    <row r="40" spans="1:22" ht="16.5">
+      <c r="N39" s="72"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="83"/>
+    </row>
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="54"/>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -3139,20 +3372,21 @@
       <c r="H40" s="64"/>
       <c r="I40" s="64"/>
       <c r="J40" s="64"/>
-      <c r="K40" s="77"/>
+      <c r="K40" s="75"/>
       <c r="L40" s="69"/>
       <c r="M40" s="69"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="69"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="64"/>
       <c r="R40" s="69"/>
-      <c r="S40" s="65"/>
+      <c r="S40" s="69"/>
       <c r="T40" s="65"/>
       <c r="U40" s="65"/>
-      <c r="V40" s="66"/>
-    </row>
-    <row r="41" spans="1:22" ht="16.5">
+      <c r="V40" s="65"/>
+      <c r="W40" s="66"/>
+    </row>
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="54"/>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
@@ -3163,20 +3397,21 @@
       <c r="H41" s="64"/>
       <c r="I41" s="64"/>
       <c r="J41" s="64"/>
-      <c r="K41" s="77"/>
+      <c r="K41" s="75"/>
       <c r="L41" s="69"/>
       <c r="M41" s="69"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="69"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="64"/>
       <c r="R41" s="69"/>
-      <c r="S41" s="65"/>
+      <c r="S41" s="69"/>
       <c r="T41" s="65"/>
       <c r="U41" s="65"/>
-      <c r="V41" s="66"/>
-    </row>
-    <row r="42" spans="1:22" ht="16.5">
+      <c r="V41" s="65"/>
+      <c r="W41" s="66"/>
+    </row>
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="54"/>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -3187,20 +3422,21 @@
       <c r="H42" s="64"/>
       <c r="I42" s="64"/>
       <c r="J42" s="64"/>
-      <c r="K42" s="77"/>
+      <c r="K42" s="75"/>
       <c r="L42" s="69"/>
       <c r="M42" s="69"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="69"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="64"/>
       <c r="R42" s="69"/>
-      <c r="S42" s="65"/>
+      <c r="S42" s="69"/>
       <c r="T42" s="65"/>
       <c r="U42" s="65"/>
-      <c r="V42" s="66"/>
-    </row>
-    <row r="43" spans="1:22" ht="16.5">
+      <c r="V42" s="65"/>
+      <c r="W42" s="66"/>
+    </row>
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="54"/>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
@@ -3211,20 +3447,21 @@
       <c r="H43" s="64"/>
       <c r="I43" s="64"/>
       <c r="J43" s="64"/>
-      <c r="K43" s="77"/>
+      <c r="K43" s="75"/>
       <c r="L43" s="69"/>
       <c r="M43" s="69"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="69"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="64"/>
       <c r="R43" s="69"/>
-      <c r="S43" s="65"/>
+      <c r="S43" s="69"/>
       <c r="T43" s="65"/>
       <c r="U43" s="65"/>
-      <c r="V43" s="66"/>
-    </row>
-    <row r="44" spans="1:22" ht="16.5">
+      <c r="V43" s="65"/>
+      <c r="W43" s="66"/>
+    </row>
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="54"/>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -3235,20 +3472,21 @@
       <c r="H44" s="64"/>
       <c r="I44" s="64"/>
       <c r="J44" s="64"/>
-      <c r="K44" s="77"/>
+      <c r="K44" s="75"/>
       <c r="L44" s="69"/>
       <c r="M44" s="69"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="69"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="64"/>
       <c r="R44" s="69"/>
-      <c r="S44" s="65"/>
+      <c r="S44" s="69"/>
       <c r="T44" s="65"/>
       <c r="U44" s="65"/>
-      <c r="V44" s="66"/>
-    </row>
-    <row r="45" spans="1:22" ht="16.5">
+      <c r="V44" s="65"/>
+      <c r="W44" s="66"/>
+    </row>
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="54"/>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
@@ -3259,20 +3497,21 @@
       <c r="H45" s="64"/>
       <c r="I45" s="64"/>
       <c r="J45" s="64"/>
-      <c r="K45" s="77"/>
+      <c r="K45" s="75"/>
       <c r="L45" s="69"/>
       <c r="M45" s="69"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="69"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="69"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="64"/>
       <c r="R45" s="69"/>
-      <c r="S45" s="65"/>
+      <c r="S45" s="69"/>
       <c r="T45" s="65"/>
       <c r="U45" s="65"/>
-      <c r="V45" s="66"/>
-    </row>
-    <row r="46" spans="1:22" ht="16.5">
+      <c r="V45" s="65"/>
+      <c r="W45" s="66"/>
+    </row>
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="54"/>
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
@@ -3283,20 +3522,21 @@
       <c r="H46" s="64"/>
       <c r="I46" s="64"/>
       <c r="J46" s="64"/>
-      <c r="K46" s="77"/>
+      <c r="K46" s="75"/>
       <c r="L46" s="69"/>
       <c r="M46" s="69"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="69"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="69"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="64"/>
       <c r="R46" s="69"/>
-      <c r="S46" s="65"/>
+      <c r="S46" s="69"/>
       <c r="T46" s="65"/>
       <c r="U46" s="65"/>
-      <c r="V46" s="66"/>
-    </row>
-    <row r="47" spans="1:22" ht="16.5">
+      <c r="V46" s="65"/>
+      <c r="W46" s="66"/>
+    </row>
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="65"/>
       <c r="B47" s="65"/>
       <c r="C47" s="65"/>
@@ -3307,20 +3547,21 @@
       <c r="H47" s="67"/>
       <c r="I47" s="65"/>
       <c r="J47" s="67"/>
-      <c r="K47" s="77"/>
+      <c r="K47" s="75"/>
       <c r="L47" s="65"/>
       <c r="M47" s="65"/>
-      <c r="N47" s="65"/>
+      <c r="N47" s="72"/>
       <c r="O47" s="65"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="66"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="67"/>
       <c r="R47" s="66"/>
-      <c r="S47" s="65"/>
+      <c r="S47" s="66"/>
       <c r="T47" s="65"/>
       <c r="U47" s="65"/>
-      <c r="V47" s="66"/>
-    </row>
-    <row r="48" spans="1:22" ht="16.5">
+      <c r="V47" s="65"/>
+      <c r="W47" s="66"/>
+    </row>
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="65"/>
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
@@ -3331,20 +3572,21 @@
       <c r="H48" s="67"/>
       <c r="I48" s="65"/>
       <c r="J48" s="67"/>
-      <c r="K48" s="77"/>
+      <c r="K48" s="75"/>
       <c r="L48" s="65"/>
       <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
+      <c r="N48" s="72"/>
       <c r="O48" s="65"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="66"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="67"/>
       <c r="R48" s="66"/>
-      <c r="S48" s="65"/>
+      <c r="S48" s="66"/>
       <c r="T48" s="65"/>
       <c r="U48" s="65"/>
-      <c r="V48" s="66"/>
-    </row>
-    <row r="49" spans="1:22" ht="16.5">
+      <c r="V48" s="65"/>
+      <c r="W48" s="66"/>
+    </row>
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="65"/>
       <c r="B49" s="65"/>
       <c r="C49" s="65"/>
@@ -3355,20 +3597,21 @@
       <c r="H49" s="67"/>
       <c r="I49" s="65"/>
       <c r="J49" s="67"/>
-      <c r="K49" s="77"/>
+      <c r="K49" s="75"/>
       <c r="L49" s="65"/>
       <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
+      <c r="N49" s="72"/>
       <c r="O49" s="65"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="66"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="67"/>
       <c r="R49" s="66"/>
-      <c r="S49" s="65"/>
+      <c r="S49" s="66"/>
       <c r="T49" s="65"/>
       <c r="U49" s="65"/>
-      <c r="V49" s="66"/>
-    </row>
-    <row r="50" spans="1:22" ht="16.5">
+      <c r="V49" s="65"/>
+      <c r="W49" s="66"/>
+    </row>
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="65"/>
       <c r="B50" s="65"/>
       <c r="C50" s="65"/>
@@ -3379,20 +3622,21 @@
       <c r="H50" s="67"/>
       <c r="I50" s="65"/>
       <c r="J50" s="67"/>
-      <c r="K50" s="77"/>
+      <c r="K50" s="75"/>
       <c r="L50" s="65"/>
       <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
+      <c r="N50" s="72"/>
       <c r="O50" s="65"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="66"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="67"/>
       <c r="R50" s="66"/>
-      <c r="S50" s="65"/>
+      <c r="S50" s="66"/>
       <c r="T50" s="65"/>
       <c r="U50" s="65"/>
-      <c r="V50" s="66"/>
-    </row>
-    <row r="51" spans="1:22" ht="16.5">
+      <c r="V50" s="65"/>
+      <c r="W50" s="66"/>
+    </row>
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="65"/>
       <c r="B51" s="65"/>
       <c r="C51" s="65"/>
@@ -3403,20 +3647,21 @@
       <c r="H51" s="67"/>
       <c r="I51" s="65"/>
       <c r="J51" s="67"/>
-      <c r="K51" s="77"/>
+      <c r="K51" s="75"/>
       <c r="L51" s="65"/>
       <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
+      <c r="N51" s="72"/>
       <c r="O51" s="65"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="66"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="67"/>
       <c r="R51" s="66"/>
-      <c r="S51" s="65"/>
+      <c r="S51" s="66"/>
       <c r="T51" s="65"/>
       <c r="U51" s="65"/>
-      <c r="V51" s="66"/>
-    </row>
-    <row r="52" spans="1:22" ht="16.5">
+      <c r="V51" s="65"/>
+      <c r="W51" s="66"/>
+    </row>
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="65"/>
       <c r="B52" s="65"/>
       <c r="C52" s="65"/>
@@ -3427,20 +3672,21 @@
       <c r="H52" s="67"/>
       <c r="I52" s="65"/>
       <c r="J52" s="67"/>
-      <c r="K52" s="77"/>
+      <c r="K52" s="75"/>
       <c r="L52" s="65"/>
       <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
+      <c r="N52" s="72"/>
       <c r="O52" s="65"/>
-      <c r="P52" s="67"/>
-      <c r="Q52" s="66"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="67"/>
       <c r="R52" s="66"/>
-      <c r="S52" s="65"/>
+      <c r="S52" s="66"/>
       <c r="T52" s="65"/>
       <c r="U52" s="65"/>
-      <c r="V52" s="66"/>
-    </row>
-    <row r="53" spans="1:22" ht="16.5">
+      <c r="V52" s="65"/>
+      <c r="W52" s="66"/>
+    </row>
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="65"/>
       <c r="B53" s="65"/>
       <c r="C53" s="65"/>
@@ -3451,20 +3697,21 @@
       <c r="H53" s="67"/>
       <c r="I53" s="65"/>
       <c r="J53" s="67"/>
-      <c r="K53" s="77"/>
+      <c r="K53" s="75"/>
       <c r="L53" s="65"/>
       <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
+      <c r="N53" s="72"/>
       <c r="O53" s="65"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="66"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="67"/>
       <c r="R53" s="66"/>
-      <c r="S53" s="65"/>
+      <c r="S53" s="66"/>
       <c r="T53" s="65"/>
       <c r="U53" s="65"/>
-      <c r="V53" s="66"/>
-    </row>
-    <row r="54" spans="1:22" ht="16.5">
+      <c r="V53" s="65"/>
+      <c r="W53" s="66"/>
+    </row>
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="65"/>
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
@@ -3475,20 +3722,21 @@
       <c r="H54" s="67"/>
       <c r="I54" s="65"/>
       <c r="J54" s="67"/>
-      <c r="K54" s="77"/>
+      <c r="K54" s="75"/>
       <c r="L54" s="65"/>
       <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
+      <c r="N54" s="72"/>
       <c r="O54" s="65"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="66"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="67"/>
       <c r="R54" s="66"/>
-      <c r="S54" s="65"/>
+      <c r="S54" s="66"/>
       <c r="T54" s="65"/>
       <c r="U54" s="65"/>
-      <c r="V54" s="66"/>
-    </row>
-    <row r="55" spans="1:22" ht="16.5">
+      <c r="V54" s="65"/>
+      <c r="W54" s="66"/>
+    </row>
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="65"/>
       <c r="B55" s="65"/>
       <c r="C55" s="65"/>
@@ -3499,20 +3747,21 @@
       <c r="H55" s="67"/>
       <c r="I55" s="65"/>
       <c r="J55" s="67"/>
-      <c r="K55" s="77"/>
+      <c r="K55" s="75"/>
       <c r="L55" s="65"/>
       <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
+      <c r="N55" s="72"/>
       <c r="O55" s="65"/>
-      <c r="P55" s="67"/>
-      <c r="Q55" s="66"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="67"/>
       <c r="R55" s="66"/>
-      <c r="S55" s="65"/>
+      <c r="S55" s="66"/>
       <c r="T55" s="65"/>
       <c r="U55" s="65"/>
-      <c r="V55" s="66"/>
-    </row>
-    <row r="56" spans="1:22" ht="16.5">
+      <c r="V55" s="65"/>
+      <c r="W55" s="66"/>
+    </row>
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="65"/>
       <c r="B56" s="65"/>
       <c r="C56" s="65"/>
@@ -3523,20 +3772,21 @@
       <c r="H56" s="67"/>
       <c r="I56" s="65"/>
       <c r="J56" s="67"/>
-      <c r="K56" s="77"/>
+      <c r="K56" s="75"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
+      <c r="N56" s="72"/>
       <c r="O56" s="65"/>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="66"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="67"/>
       <c r="R56" s="66"/>
-      <c r="S56" s="65"/>
+      <c r="S56" s="66"/>
       <c r="T56" s="65"/>
       <c r="U56" s="65"/>
-      <c r="V56" s="66"/>
-    </row>
-    <row r="57" spans="1:22" ht="16.5">
+      <c r="V56" s="65"/>
+      <c r="W56" s="66"/>
+    </row>
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="65"/>
       <c r="B57" s="65"/>
       <c r="C57" s="65"/>
@@ -3547,20 +3797,21 @@
       <c r="H57" s="67"/>
       <c r="I57" s="65"/>
       <c r="J57" s="67"/>
-      <c r="K57" s="77"/>
+      <c r="K57" s="75"/>
       <c r="L57" s="65"/>
       <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
+      <c r="N57" s="72"/>
       <c r="O57" s="65"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="66"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="67"/>
       <c r="R57" s="66"/>
-      <c r="S57" s="65"/>
+      <c r="S57" s="66"/>
       <c r="T57" s="65"/>
       <c r="U57" s="65"/>
-      <c r="V57" s="66"/>
-    </row>
-    <row r="58" spans="1:22" ht="16.5">
+      <c r="V57" s="65"/>
+      <c r="W57" s="66"/>
+    </row>
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="65"/>
       <c r="B58" s="65"/>
       <c r="C58" s="65"/>
@@ -3571,20 +3822,21 @@
       <c r="H58" s="67"/>
       <c r="I58" s="65"/>
       <c r="J58" s="67"/>
-      <c r="K58" s="77"/>
+      <c r="K58" s="75"/>
       <c r="L58" s="65"/>
       <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
+      <c r="N58" s="72"/>
       <c r="O58" s="65"/>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="66"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="67"/>
       <c r="R58" s="66"/>
-      <c r="S58" s="65"/>
+      <c r="S58" s="66"/>
       <c r="T58" s="65"/>
       <c r="U58" s="65"/>
-      <c r="V58" s="66"/>
-    </row>
-    <row r="59" spans="1:22" ht="16.5">
+      <c r="V58" s="65"/>
+      <c r="W58" s="66"/>
+    </row>
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="65"/>
       <c r="B59" s="65"/>
       <c r="C59" s="65"/>
@@ -3595,20 +3847,21 @@
       <c r="H59" s="67"/>
       <c r="I59" s="65"/>
       <c r="J59" s="67"/>
-      <c r="K59" s="77"/>
+      <c r="K59" s="75"/>
       <c r="L59" s="65"/>
       <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
+      <c r="N59" s="72"/>
       <c r="O59" s="65"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="66"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="67"/>
       <c r="R59" s="66"/>
-      <c r="S59" s="65"/>
+      <c r="S59" s="66"/>
       <c r="T59" s="65"/>
       <c r="U59" s="65"/>
-      <c r="V59" s="66"/>
-    </row>
-    <row r="60" spans="1:22" ht="16.5">
+      <c r="V59" s="65"/>
+      <c r="W59" s="66"/>
+    </row>
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="65"/>
       <c r="B60" s="65"/>
       <c r="C60" s="65"/>
@@ -3619,20 +3872,21 @@
       <c r="H60" s="67"/>
       <c r="I60" s="65"/>
       <c r="J60" s="67"/>
-      <c r="K60" s="77"/>
+      <c r="K60" s="75"/>
       <c r="L60" s="65"/>
       <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
+      <c r="N60" s="72"/>
       <c r="O60" s="65"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="66"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="67"/>
       <c r="R60" s="66"/>
-      <c r="S60" s="65"/>
+      <c r="S60" s="66"/>
       <c r="T60" s="65"/>
       <c r="U60" s="65"/>
-      <c r="V60" s="66"/>
-    </row>
-    <row r="61" spans="1:22" ht="16.5">
+      <c r="V60" s="65"/>
+      <c r="W60" s="66"/>
+    </row>
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="65"/>
       <c r="B61" s="65"/>
       <c r="C61" s="65"/>
@@ -3643,20 +3897,21 @@
       <c r="H61" s="67"/>
       <c r="I61" s="65"/>
       <c r="J61" s="67"/>
-      <c r="K61" s="77"/>
+      <c r="K61" s="75"/>
       <c r="L61" s="65"/>
       <c r="M61" s="65"/>
-      <c r="N61" s="65"/>
+      <c r="N61" s="72"/>
       <c r="O61" s="65"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="66"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="67"/>
       <c r="R61" s="66"/>
-      <c r="S61" s="65"/>
+      <c r="S61" s="66"/>
       <c r="T61" s="65"/>
       <c r="U61" s="65"/>
-      <c r="V61" s="66"/>
-    </row>
-    <row r="62" spans="1:22" ht="16.5">
+      <c r="V61" s="65"/>
+      <c r="W61" s="66"/>
+    </row>
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="65"/>
       <c r="B62" s="65"/>
       <c r="C62" s="65"/>
@@ -3667,20 +3922,21 @@
       <c r="H62" s="67"/>
       <c r="I62" s="65"/>
       <c r="J62" s="67"/>
-      <c r="K62" s="77"/>
+      <c r="K62" s="75"/>
       <c r="L62" s="65"/>
       <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
+      <c r="N62" s="72"/>
       <c r="O62" s="65"/>
-      <c r="P62" s="67"/>
-      <c r="Q62" s="66"/>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="67"/>
       <c r="R62" s="66"/>
-      <c r="S62" s="65"/>
+      <c r="S62" s="66"/>
       <c r="T62" s="65"/>
       <c r="U62" s="65"/>
-      <c r="V62" s="66"/>
-    </row>
-    <row r="63" spans="1:22" ht="16.5">
+      <c r="V62" s="65"/>
+      <c r="W62" s="66"/>
+    </row>
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="65"/>
       <c r="B63" s="65"/>
       <c r="C63" s="65"/>
@@ -3691,20 +3947,21 @@
       <c r="H63" s="67"/>
       <c r="I63" s="65"/>
       <c r="J63" s="67"/>
-      <c r="K63" s="77"/>
+      <c r="K63" s="75"/>
       <c r="L63" s="65"/>
       <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
+      <c r="N63" s="72"/>
       <c r="O63" s="65"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="66"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="67"/>
       <c r="R63" s="66"/>
-      <c r="S63" s="65"/>
+      <c r="S63" s="66"/>
       <c r="T63" s="65"/>
       <c r="U63" s="65"/>
-      <c r="V63" s="66"/>
-    </row>
-    <row r="64" spans="1:22" ht="16.5">
+      <c r="V63" s="65"/>
+      <c r="W63" s="66"/>
+    </row>
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="65"/>
       <c r="B64" s="65"/>
       <c r="C64" s="65"/>
@@ -3715,20 +3972,21 @@
       <c r="H64" s="67"/>
       <c r="I64" s="65"/>
       <c r="J64" s="67"/>
-      <c r="K64" s="77"/>
+      <c r="K64" s="75"/>
       <c r="L64" s="65"/>
       <c r="M64" s="65"/>
-      <c r="N64" s="65"/>
+      <c r="N64" s="72"/>
       <c r="O64" s="65"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="66"/>
+      <c r="P64" s="65"/>
+      <c r="Q64" s="67"/>
       <c r="R64" s="66"/>
-      <c r="S64" s="65"/>
+      <c r="S64" s="66"/>
       <c r="T64" s="65"/>
       <c r="U64" s="65"/>
-      <c r="V64" s="66"/>
-    </row>
-    <row r="65" spans="1:22" ht="16.5">
+      <c r="V64" s="65"/>
+      <c r="W64" s="66"/>
+    </row>
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="65"/>
       <c r="B65" s="65"/>
       <c r="C65" s="65"/>
@@ -3739,20 +3997,21 @@
       <c r="H65" s="67"/>
       <c r="I65" s="65"/>
       <c r="J65" s="67"/>
-      <c r="K65" s="77"/>
+      <c r="K65" s="75"/>
       <c r="L65" s="65"/>
       <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
+      <c r="N65" s="72"/>
       <c r="O65" s="65"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="66"/>
+      <c r="P65" s="65"/>
+      <c r="Q65" s="67"/>
       <c r="R65" s="66"/>
-      <c r="S65" s="65"/>
+      <c r="S65" s="66"/>
       <c r="T65" s="65"/>
       <c r="U65" s="65"/>
-      <c r="V65" s="66"/>
-    </row>
-    <row r="66" spans="1:22" ht="16.5">
+      <c r="V65" s="65"/>
+      <c r="W65" s="66"/>
+    </row>
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="65"/>
       <c r="B66" s="65"/>
       <c r="C66" s="65"/>
@@ -3763,20 +4022,21 @@
       <c r="H66" s="67"/>
       <c r="I66" s="65"/>
       <c r="J66" s="67"/>
-      <c r="K66" s="77"/>
+      <c r="K66" s="75"/>
       <c r="L66" s="65"/>
       <c r="M66" s="65"/>
-      <c r="N66" s="65"/>
+      <c r="N66" s="72"/>
       <c r="O66" s="65"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="66"/>
+      <c r="P66" s="65"/>
+      <c r="Q66" s="67"/>
       <c r="R66" s="66"/>
-      <c r="S66" s="65"/>
+      <c r="S66" s="66"/>
       <c r="T66" s="65"/>
       <c r="U66" s="65"/>
-      <c r="V66" s="66"/>
-    </row>
-    <row r="67" spans="1:22" ht="16.5">
+      <c r="V66" s="65"/>
+      <c r="W66" s="66"/>
+    </row>
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="65"/>
       <c r="B67" s="65"/>
       <c r="C67" s="65"/>
@@ -3787,20 +4047,21 @@
       <c r="H67" s="67"/>
       <c r="I67" s="65"/>
       <c r="J67" s="67"/>
-      <c r="K67" s="77"/>
+      <c r="K67" s="75"/>
       <c r="L67" s="65"/>
       <c r="M67" s="65"/>
-      <c r="N67" s="65"/>
+      <c r="N67" s="72"/>
       <c r="O67" s="65"/>
-      <c r="P67" s="67"/>
-      <c r="Q67" s="66"/>
+      <c r="P67" s="65"/>
+      <c r="Q67" s="67"/>
       <c r="R67" s="66"/>
-      <c r="S67" s="65"/>
+      <c r="S67" s="66"/>
       <c r="T67" s="65"/>
       <c r="U67" s="65"/>
-      <c r="V67" s="66"/>
-    </row>
-    <row r="68" spans="1:22" ht="16.5">
+      <c r="V67" s="65"/>
+      <c r="W67" s="66"/>
+    </row>
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="65"/>
       <c r="B68" s="65"/>
       <c r="C68" s="65"/>
@@ -3811,20 +4072,21 @@
       <c r="H68" s="67"/>
       <c r="I68" s="65"/>
       <c r="J68" s="67"/>
-      <c r="K68" s="77"/>
+      <c r="K68" s="75"/>
       <c r="L68" s="65"/>
       <c r="M68" s="65"/>
-      <c r="N68" s="65"/>
+      <c r="N68" s="72"/>
       <c r="O68" s="65"/>
-      <c r="P68" s="67"/>
-      <c r="Q68" s="66"/>
+      <c r="P68" s="65"/>
+      <c r="Q68" s="67"/>
       <c r="R68" s="66"/>
-      <c r="S68" s="65"/>
+      <c r="S68" s="66"/>
       <c r="T68" s="65"/>
       <c r="U68" s="65"/>
-      <c r="V68" s="66"/>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="V68" s="65"/>
+      <c r="W68" s="66"/>
+    </row>
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="65"/>
       <c r="B69" s="65"/>
       <c r="C69" s="65"/>
@@ -3835,20 +4097,21 @@
       <c r="H69" s="67"/>
       <c r="I69" s="65"/>
       <c r="J69" s="67"/>
-      <c r="K69" s="77"/>
+      <c r="K69" s="75"/>
       <c r="L69" s="65"/>
       <c r="M69" s="65"/>
-      <c r="N69" s="65"/>
+      <c r="N69" s="72"/>
       <c r="O69" s="65"/>
-      <c r="P69" s="67"/>
-      <c r="Q69" s="66"/>
+      <c r="P69" s="65"/>
+      <c r="Q69" s="67"/>
       <c r="R69" s="66"/>
-      <c r="S69" s="65"/>
+      <c r="S69" s="66"/>
       <c r="T69" s="65"/>
       <c r="U69" s="65"/>
-      <c r="V69" s="66"/>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="V69" s="65"/>
+      <c r="W69" s="66"/>
+    </row>
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="65"/>
       <c r="B70" s="65"/>
       <c r="C70" s="65"/>
@@ -3859,20 +4122,21 @@
       <c r="H70" s="67"/>
       <c r="I70" s="65"/>
       <c r="J70" s="67"/>
-      <c r="K70" s="77"/>
+      <c r="K70" s="75"/>
       <c r="L70" s="65"/>
       <c r="M70" s="65"/>
-      <c r="N70" s="65"/>
+      <c r="N70" s="72"/>
       <c r="O70" s="65"/>
-      <c r="P70" s="67"/>
-      <c r="Q70" s="66"/>
+      <c r="P70" s="65"/>
+      <c r="Q70" s="67"/>
       <c r="R70" s="66"/>
-      <c r="S70" s="65"/>
+      <c r="S70" s="66"/>
       <c r="T70" s="65"/>
       <c r="U70" s="65"/>
-      <c r="V70" s="66"/>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="V70" s="65"/>
+      <c r="W70" s="66"/>
+    </row>
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="65"/>
       <c r="B71" s="65"/>
       <c r="C71" s="65"/>
@@ -3883,20 +4147,21 @@
       <c r="H71" s="67"/>
       <c r="I71" s="65"/>
       <c r="J71" s="67"/>
-      <c r="K71" s="77"/>
+      <c r="K71" s="75"/>
       <c r="L71" s="65"/>
       <c r="M71" s="65"/>
-      <c r="N71" s="65"/>
+      <c r="N71" s="72"/>
       <c r="O71" s="65"/>
-      <c r="P71" s="67"/>
-      <c r="Q71" s="66"/>
+      <c r="P71" s="65"/>
+      <c r="Q71" s="67"/>
       <c r="R71" s="66"/>
-      <c r="S71" s="65"/>
+      <c r="S71" s="66"/>
       <c r="T71" s="65"/>
       <c r="U71" s="65"/>
-      <c r="V71" s="66"/>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="V71" s="65"/>
+      <c r="W71" s="66"/>
+    </row>
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="65"/>
       <c r="B72" s="65"/>
       <c r="C72" s="65"/>
@@ -3907,20 +4172,21 @@
       <c r="H72" s="67"/>
       <c r="I72" s="65"/>
       <c r="J72" s="67"/>
-      <c r="K72" s="77"/>
+      <c r="K72" s="75"/>
       <c r="L72" s="65"/>
       <c r="M72" s="65"/>
-      <c r="N72" s="65"/>
+      <c r="N72" s="72"/>
       <c r="O72" s="65"/>
-      <c r="P72" s="67"/>
-      <c r="Q72" s="66"/>
+      <c r="P72" s="65"/>
+      <c r="Q72" s="67"/>
       <c r="R72" s="66"/>
-      <c r="S72" s="65"/>
+      <c r="S72" s="66"/>
       <c r="T72" s="65"/>
       <c r="U72" s="65"/>
-      <c r="V72" s="66"/>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="V72" s="65"/>
+      <c r="W72" s="66"/>
+    </row>
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="65"/>
       <c r="B73" s="65"/>
       <c r="C73" s="65"/>
@@ -3931,20 +4197,21 @@
       <c r="H73" s="67"/>
       <c r="I73" s="65"/>
       <c r="J73" s="67"/>
-      <c r="K73" s="77"/>
+      <c r="K73" s="75"/>
       <c r="L73" s="65"/>
       <c r="M73" s="65"/>
-      <c r="N73" s="65"/>
+      <c r="N73" s="72"/>
       <c r="O73" s="65"/>
-      <c r="P73" s="67"/>
-      <c r="Q73" s="66"/>
+      <c r="P73" s="65"/>
+      <c r="Q73" s="67"/>
       <c r="R73" s="66"/>
-      <c r="S73" s="65"/>
+      <c r="S73" s="66"/>
       <c r="T73" s="65"/>
       <c r="U73" s="65"/>
-      <c r="V73" s="66"/>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="V73" s="65"/>
+      <c r="W73" s="66"/>
+    </row>
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="65"/>
       <c r="B74" s="65"/>
       <c r="C74" s="65"/>
@@ -3955,20 +4222,21 @@
       <c r="H74" s="67"/>
       <c r="I74" s="65"/>
       <c r="J74" s="67"/>
-      <c r="K74" s="77"/>
+      <c r="K74" s="75"/>
       <c r="L74" s="65"/>
       <c r="M74" s="65"/>
-      <c r="N74" s="65"/>
+      <c r="N74" s="72"/>
       <c r="O74" s="65"/>
-      <c r="P74" s="67"/>
-      <c r="Q74" s="66"/>
+      <c r="P74" s="65"/>
+      <c r="Q74" s="67"/>
       <c r="R74" s="66"/>
-      <c r="S74" s="65"/>
+      <c r="S74" s="66"/>
       <c r="T74" s="65"/>
       <c r="U74" s="65"/>
-      <c r="V74" s="66"/>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="V74" s="65"/>
+      <c r="W74" s="66"/>
+    </row>
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="65"/>
       <c r="B75" s="65"/>
       <c r="C75" s="65"/>
@@ -3979,20 +4247,21 @@
       <c r="H75" s="67"/>
       <c r="I75" s="65"/>
       <c r="J75" s="67"/>
-      <c r="K75" s="77"/>
+      <c r="K75" s="75"/>
       <c r="L75" s="65"/>
       <c r="M75" s="65"/>
-      <c r="N75" s="65"/>
+      <c r="N75" s="72"/>
       <c r="O75" s="65"/>
-      <c r="P75" s="67"/>
-      <c r="Q75" s="66"/>
+      <c r="P75" s="65"/>
+      <c r="Q75" s="67"/>
       <c r="R75" s="66"/>
-      <c r="S75" s="65"/>
+      <c r="S75" s="66"/>
       <c r="T75" s="65"/>
       <c r="U75" s="65"/>
-      <c r="V75" s="66"/>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="V75" s="65"/>
+      <c r="W75" s="66"/>
+    </row>
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="65"/>
       <c r="B76" s="65"/>
       <c r="C76" s="65"/>
@@ -4003,20 +4272,21 @@
       <c r="H76" s="67"/>
       <c r="I76" s="65"/>
       <c r="J76" s="67"/>
-      <c r="K76" s="77"/>
+      <c r="K76" s="75"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
-      <c r="N76" s="65"/>
+      <c r="N76" s="72"/>
       <c r="O76" s="65"/>
-      <c r="P76" s="67"/>
-      <c r="Q76" s="66"/>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="67"/>
       <c r="R76" s="66"/>
-      <c r="S76" s="65"/>
+      <c r="S76" s="66"/>
       <c r="T76" s="65"/>
       <c r="U76" s="65"/>
-      <c r="V76" s="66"/>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="V76" s="65"/>
+      <c r="W76" s="66"/>
+    </row>
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="65"/>
       <c r="B77" s="65"/>
       <c r="C77" s="65"/>
@@ -4027,20 +4297,21 @@
       <c r="H77" s="67"/>
       <c r="I77" s="65"/>
       <c r="J77" s="67"/>
-      <c r="K77" s="77"/>
+      <c r="K77" s="75"/>
       <c r="L77" s="65"/>
       <c r="M77" s="65"/>
-      <c r="N77" s="65"/>
+      <c r="N77" s="72"/>
       <c r="O77" s="65"/>
-      <c r="P77" s="67"/>
-      <c r="Q77" s="66"/>
+      <c r="P77" s="65"/>
+      <c r="Q77" s="67"/>
       <c r="R77" s="66"/>
-      <c r="S77" s="65"/>
+      <c r="S77" s="66"/>
       <c r="T77" s="65"/>
       <c r="U77" s="65"/>
-      <c r="V77" s="66"/>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="V77" s="65"/>
+      <c r="W77" s="66"/>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="65"/>
       <c r="B78" s="65"/>
       <c r="C78" s="65"/>
@@ -4051,20 +4322,21 @@
       <c r="H78" s="67"/>
       <c r="I78" s="65"/>
       <c r="J78" s="67"/>
-      <c r="K78" s="77"/>
+      <c r="K78" s="75"/>
       <c r="L78" s="65"/>
       <c r="M78" s="65"/>
-      <c r="N78" s="65"/>
+      <c r="N78" s="101"/>
       <c r="O78" s="65"/>
-      <c r="P78" s="67"/>
-      <c r="Q78" s="66"/>
+      <c r="P78" s="65"/>
+      <c r="Q78" s="67"/>
       <c r="R78" s="66"/>
-      <c r="S78" s="65"/>
+      <c r="S78" s="66"/>
       <c r="T78" s="65"/>
       <c r="U78" s="65"/>
-      <c r="V78" s="66"/>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="V78" s="65"/>
+      <c r="W78" s="66"/>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="65"/>
       <c r="B79" s="65"/>
       <c r="C79" s="65"/>
@@ -4075,20 +4347,21 @@
       <c r="H79" s="67"/>
       <c r="I79" s="65"/>
       <c r="J79" s="67"/>
-      <c r="K79" s="77"/>
+      <c r="K79" s="75"/>
       <c r="L79" s="65"/>
       <c r="M79" s="65"/>
-      <c r="N79" s="65"/>
+      <c r="N79" s="101"/>
       <c r="O79" s="65"/>
-      <c r="P79" s="67"/>
-      <c r="Q79" s="66"/>
+      <c r="P79" s="65"/>
+      <c r="Q79" s="67"/>
       <c r="R79" s="66"/>
-      <c r="S79" s="65"/>
+      <c r="S79" s="66"/>
       <c r="T79" s="65"/>
       <c r="U79" s="65"/>
-      <c r="V79" s="66"/>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="V79" s="65"/>
+      <c r="W79" s="66"/>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="65"/>
       <c r="B80" s="65"/>
       <c r="C80" s="65"/>
@@ -4099,20 +4372,21 @@
       <c r="H80" s="67"/>
       <c r="I80" s="65"/>
       <c r="J80" s="67"/>
-      <c r="K80" s="77"/>
+      <c r="K80" s="75"/>
       <c r="L80" s="65"/>
       <c r="M80" s="65"/>
-      <c r="N80" s="65"/>
+      <c r="N80" s="101"/>
       <c r="O80" s="65"/>
-      <c r="P80" s="67"/>
-      <c r="Q80" s="66"/>
+      <c r="P80" s="65"/>
+      <c r="Q80" s="67"/>
       <c r="R80" s="66"/>
-      <c r="S80" s="65"/>
+      <c r="S80" s="66"/>
       <c r="T80" s="65"/>
       <c r="U80" s="65"/>
-      <c r="V80" s="66"/>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="V80" s="65"/>
+      <c r="W80" s="66"/>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="65"/>
       <c r="B81" s="65"/>
       <c r="C81" s="65"/>
@@ -4123,20 +4397,21 @@
       <c r="H81" s="67"/>
       <c r="I81" s="65"/>
       <c r="J81" s="67"/>
-      <c r="K81" s="77"/>
+      <c r="K81" s="75"/>
       <c r="L81" s="65"/>
       <c r="M81" s="65"/>
-      <c r="N81" s="65"/>
+      <c r="N81" s="101"/>
       <c r="O81" s="65"/>
-      <c r="P81" s="67"/>
-      <c r="Q81" s="66"/>
+      <c r="P81" s="65"/>
+      <c r="Q81" s="67"/>
       <c r="R81" s="66"/>
-      <c r="S81" s="65"/>
+      <c r="S81" s="66"/>
       <c r="T81" s="65"/>
       <c r="U81" s="65"/>
-      <c r="V81" s="66"/>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="V81" s="65"/>
+      <c r="W81" s="66"/>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="65"/>
       <c r="B82" s="65"/>
       <c r="C82" s="65"/>
@@ -4147,20 +4422,21 @@
       <c r="H82" s="67"/>
       <c r="I82" s="65"/>
       <c r="J82" s="67"/>
-      <c r="K82" s="77"/>
+      <c r="K82" s="75"/>
       <c r="L82" s="65"/>
       <c r="M82" s="65"/>
-      <c r="N82" s="65"/>
+      <c r="N82" s="101"/>
       <c r="O82" s="65"/>
-      <c r="P82" s="67"/>
-      <c r="Q82" s="66"/>
+      <c r="P82" s="65"/>
+      <c r="Q82" s="67"/>
       <c r="R82" s="66"/>
-      <c r="S82" s="65"/>
+      <c r="S82" s="66"/>
       <c r="T82" s="65"/>
       <c r="U82" s="65"/>
-      <c r="V82" s="66"/>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="V82" s="65"/>
+      <c r="W82" s="66"/>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="65"/>
       <c r="B83" s="65"/>
       <c r="C83" s="65"/>
@@ -4171,20 +4447,21 @@
       <c r="H83" s="67"/>
       <c r="I83" s="65"/>
       <c r="J83" s="67"/>
-      <c r="K83" s="77"/>
+      <c r="K83" s="75"/>
       <c r="L83" s="65"/>
       <c r="M83" s="65"/>
-      <c r="N83" s="65"/>
+      <c r="N83" s="101"/>
       <c r="O83" s="65"/>
-      <c r="P83" s="67"/>
-      <c r="Q83" s="66"/>
+      <c r="P83" s="65"/>
+      <c r="Q83" s="67"/>
       <c r="R83" s="66"/>
-      <c r="S83" s="65"/>
+      <c r="S83" s="66"/>
       <c r="T83" s="65"/>
       <c r="U83" s="65"/>
-      <c r="V83" s="66"/>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="V83" s="65"/>
+      <c r="W83" s="66"/>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" s="65"/>
       <c r="B84" s="65"/>
       <c r="C84" s="65"/>
@@ -4195,20 +4472,21 @@
       <c r="H84" s="67"/>
       <c r="I84" s="65"/>
       <c r="J84" s="67"/>
-      <c r="K84" s="77"/>
+      <c r="K84" s="75"/>
       <c r="L84" s="65"/>
       <c r="M84" s="65"/>
-      <c r="N84" s="65"/>
+      <c r="N84" s="101"/>
       <c r="O84" s="65"/>
-      <c r="P84" s="67"/>
-      <c r="Q84" s="66"/>
+      <c r="P84" s="65"/>
+      <c r="Q84" s="67"/>
       <c r="R84" s="66"/>
-      <c r="S84" s="65"/>
+      <c r="S84" s="66"/>
       <c r="T84" s="65"/>
       <c r="U84" s="65"/>
-      <c r="V84" s="66"/>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="V84" s="65"/>
+      <c r="W84" s="66"/>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" s="65"/>
       <c r="B85" s="65"/>
       <c r="C85" s="65"/>
@@ -4219,20 +4497,21 @@
       <c r="H85" s="67"/>
       <c r="I85" s="65"/>
       <c r="J85" s="67"/>
-      <c r="K85" s="77"/>
+      <c r="K85" s="75"/>
       <c r="L85" s="65"/>
       <c r="M85" s="65"/>
-      <c r="N85" s="65"/>
+      <c r="N85" s="101"/>
       <c r="O85" s="65"/>
-      <c r="P85" s="67"/>
-      <c r="Q85" s="66"/>
+      <c r="P85" s="65"/>
+      <c r="Q85" s="67"/>
       <c r="R85" s="66"/>
-      <c r="S85" s="65"/>
+      <c r="S85" s="66"/>
       <c r="T85" s="65"/>
       <c r="U85" s="65"/>
-      <c r="V85" s="66"/>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="V85" s="65"/>
+      <c r="W85" s="66"/>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" s="65"/>
       <c r="B86" s="65"/>
       <c r="C86" s="65"/>
@@ -4243,20 +4522,21 @@
       <c r="H86" s="67"/>
       <c r="I86" s="65"/>
       <c r="J86" s="67"/>
-      <c r="K86" s="77"/>
+      <c r="K86" s="75"/>
       <c r="L86" s="65"/>
       <c r="M86" s="65"/>
-      <c r="N86" s="65"/>
+      <c r="N86" s="101"/>
       <c r="O86" s="65"/>
-      <c r="P86" s="67"/>
-      <c r="Q86" s="66"/>
+      <c r="P86" s="65"/>
+      <c r="Q86" s="67"/>
       <c r="R86" s="66"/>
-      <c r="S86" s="65"/>
+      <c r="S86" s="66"/>
       <c r="T86" s="65"/>
       <c r="U86" s="65"/>
-      <c r="V86" s="66"/>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="V86" s="65"/>
+      <c r="W86" s="66"/>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="65"/>
       <c r="B87" s="65"/>
       <c r="C87" s="65"/>
@@ -4267,20 +4547,21 @@
       <c r="H87" s="67"/>
       <c r="I87" s="65"/>
       <c r="J87" s="67"/>
-      <c r="K87" s="77"/>
+      <c r="K87" s="75"/>
       <c r="L87" s="65"/>
       <c r="M87" s="65"/>
-      <c r="N87" s="65"/>
+      <c r="N87" s="101"/>
       <c r="O87" s="65"/>
-      <c r="P87" s="67"/>
-      <c r="Q87" s="66"/>
+      <c r="P87" s="65"/>
+      <c r="Q87" s="67"/>
       <c r="R87" s="66"/>
-      <c r="S87" s="65"/>
+      <c r="S87" s="66"/>
       <c r="T87" s="65"/>
       <c r="U87" s="65"/>
-      <c r="V87" s="66"/>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="V87" s="65"/>
+      <c r="W87" s="66"/>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" s="65"/>
       <c r="B88" s="65"/>
       <c r="C88" s="65"/>
@@ -4291,20 +4572,21 @@
       <c r="H88" s="67"/>
       <c r="I88" s="65"/>
       <c r="J88" s="67"/>
-      <c r="K88" s="77"/>
+      <c r="K88" s="75"/>
       <c r="L88" s="65"/>
       <c r="M88" s="65"/>
-      <c r="N88" s="65"/>
+      <c r="N88" s="101"/>
       <c r="O88" s="65"/>
-      <c r="P88" s="67"/>
-      <c r="Q88" s="66"/>
+      <c r="P88" s="65"/>
+      <c r="Q88" s="67"/>
       <c r="R88" s="66"/>
-      <c r="S88" s="65"/>
+      <c r="S88" s="66"/>
       <c r="T88" s="65"/>
       <c r="U88" s="65"/>
-      <c r="V88" s="66"/>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="V88" s="65"/>
+      <c r="W88" s="66"/>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" s="65"/>
       <c r="B89" s="65"/>
       <c r="C89" s="65"/>
@@ -4315,20 +4597,21 @@
       <c r="H89" s="67"/>
       <c r="I89" s="65"/>
       <c r="J89" s="67"/>
-      <c r="K89" s="77"/>
+      <c r="K89" s="75"/>
       <c r="L89" s="65"/>
       <c r="M89" s="65"/>
-      <c r="N89" s="65"/>
+      <c r="N89" s="101"/>
       <c r="O89" s="65"/>
-      <c r="P89" s="67"/>
-      <c r="Q89" s="66"/>
+      <c r="P89" s="65"/>
+      <c r="Q89" s="67"/>
       <c r="R89" s="66"/>
-      <c r="S89" s="65"/>
+      <c r="S89" s="66"/>
       <c r="T89" s="65"/>
       <c r="U89" s="65"/>
-      <c r="V89" s="66"/>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="V89" s="65"/>
+      <c r="W89" s="66"/>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" s="65"/>
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
@@ -4339,20 +4622,21 @@
       <c r="H90" s="67"/>
       <c r="I90" s="65"/>
       <c r="J90" s="67"/>
-      <c r="K90" s="77"/>
+      <c r="K90" s="75"/>
       <c r="L90" s="65"/>
       <c r="M90" s="65"/>
-      <c r="N90" s="65"/>
+      <c r="N90" s="101"/>
       <c r="O90" s="65"/>
-      <c r="P90" s="67"/>
-      <c r="Q90" s="66"/>
+      <c r="P90" s="65"/>
+      <c r="Q90" s="67"/>
       <c r="R90" s="66"/>
-      <c r="S90" s="65"/>
+      <c r="S90" s="66"/>
       <c r="T90" s="65"/>
       <c r="U90" s="65"/>
-      <c r="V90" s="66"/>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="V90" s="65"/>
+      <c r="W90" s="66"/>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" s="65"/>
       <c r="B91" s="65"/>
       <c r="C91" s="65"/>
@@ -4363,20 +4647,21 @@
       <c r="H91" s="67"/>
       <c r="I91" s="65"/>
       <c r="J91" s="67"/>
-      <c r="K91" s="77"/>
+      <c r="K91" s="75"/>
       <c r="L91" s="65"/>
       <c r="M91" s="65"/>
-      <c r="N91" s="65"/>
+      <c r="N91" s="101"/>
       <c r="O91" s="65"/>
-      <c r="P91" s="67"/>
-      <c r="Q91" s="66"/>
+      <c r="P91" s="65"/>
+      <c r="Q91" s="67"/>
       <c r="R91" s="66"/>
-      <c r="S91" s="65"/>
+      <c r="S91" s="66"/>
       <c r="T91" s="65"/>
       <c r="U91" s="65"/>
-      <c r="V91" s="66"/>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="V91" s="65"/>
+      <c r="W91" s="66"/>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" s="65"/>
       <c r="B92" s="65"/>
       <c r="C92" s="65"/>
@@ -4387,20 +4672,21 @@
       <c r="H92" s="67"/>
       <c r="I92" s="65"/>
       <c r="J92" s="67"/>
-      <c r="K92" s="77"/>
+      <c r="K92" s="75"/>
       <c r="L92" s="65"/>
       <c r="M92" s="65"/>
-      <c r="N92" s="65"/>
+      <c r="N92" s="101"/>
       <c r="O92" s="65"/>
-      <c r="P92" s="67"/>
-      <c r="Q92" s="66"/>
+      <c r="P92" s="65"/>
+      <c r="Q92" s="67"/>
       <c r="R92" s="66"/>
-      <c r="S92" s="65"/>
+      <c r="S92" s="66"/>
       <c r="T92" s="65"/>
       <c r="U92" s="65"/>
-      <c r="V92" s="66"/>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="V92" s="65"/>
+      <c r="W92" s="66"/>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" s="65"/>
       <c r="B93" s="65"/>
       <c r="C93" s="65"/>
@@ -4411,20 +4697,21 @@
       <c r="H93" s="67"/>
       <c r="I93" s="65"/>
       <c r="J93" s="67"/>
-      <c r="K93" s="77"/>
+      <c r="K93" s="75"/>
       <c r="L93" s="65"/>
       <c r="M93" s="65"/>
-      <c r="N93" s="65"/>
+      <c r="N93" s="101"/>
       <c r="O93" s="65"/>
-      <c r="P93" s="67"/>
-      <c r="Q93" s="66"/>
+      <c r="P93" s="65"/>
+      <c r="Q93" s="67"/>
       <c r="R93" s="66"/>
-      <c r="S93" s="65"/>
+      <c r="S93" s="66"/>
       <c r="T93" s="65"/>
       <c r="U93" s="65"/>
-      <c r="V93" s="66"/>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="V93" s="65"/>
+      <c r="W93" s="66"/>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" s="65"/>
       <c r="B94" s="65"/>
       <c r="C94" s="65"/>
@@ -4435,20 +4722,21 @@
       <c r="H94" s="67"/>
       <c r="I94" s="65"/>
       <c r="J94" s="67"/>
-      <c r="K94" s="77"/>
+      <c r="K94" s="75"/>
       <c r="L94" s="65"/>
       <c r="M94" s="65"/>
-      <c r="N94" s="65"/>
+      <c r="N94" s="101"/>
       <c r="O94" s="65"/>
-      <c r="P94" s="67"/>
-      <c r="Q94" s="66"/>
+      <c r="P94" s="65"/>
+      <c r="Q94" s="67"/>
       <c r="R94" s="66"/>
-      <c r="S94" s="65"/>
+      <c r="S94" s="66"/>
       <c r="T94" s="65"/>
       <c r="U94" s="65"/>
-      <c r="V94" s="66"/>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="V94" s="65"/>
+      <c r="W94" s="66"/>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" s="65"/>
       <c r="B95" s="65"/>
       <c r="C95" s="65"/>
@@ -4459,20 +4747,21 @@
       <c r="H95" s="67"/>
       <c r="I95" s="65"/>
       <c r="J95" s="67"/>
-      <c r="K95" s="77"/>
+      <c r="K95" s="75"/>
       <c r="L95" s="65"/>
       <c r="M95" s="65"/>
-      <c r="N95" s="65"/>
+      <c r="N95" s="101"/>
       <c r="O95" s="65"/>
-      <c r="P95" s="67"/>
-      <c r="Q95" s="66"/>
+      <c r="P95" s="65"/>
+      <c r="Q95" s="67"/>
       <c r="R95" s="66"/>
-      <c r="S95" s="65"/>
+      <c r="S95" s="66"/>
       <c r="T95" s="65"/>
       <c r="U95" s="65"/>
-      <c r="V95" s="66"/>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="V95" s="65"/>
+      <c r="W95" s="66"/>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" s="65"/>
       <c r="B96" s="65"/>
       <c r="C96" s="65"/>
@@ -4483,20 +4772,21 @@
       <c r="H96" s="67"/>
       <c r="I96" s="65"/>
       <c r="J96" s="67"/>
-      <c r="K96" s="77"/>
+      <c r="K96" s="75"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
-      <c r="N96" s="65"/>
+      <c r="N96" s="101"/>
       <c r="O96" s="65"/>
-      <c r="P96" s="67"/>
-      <c r="Q96" s="66"/>
+      <c r="P96" s="65"/>
+      <c r="Q96" s="67"/>
       <c r="R96" s="66"/>
-      <c r="S96" s="65"/>
+      <c r="S96" s="66"/>
       <c r="T96" s="65"/>
       <c r="U96" s="65"/>
-      <c r="V96" s="66"/>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="V96" s="65"/>
+      <c r="W96" s="66"/>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" s="65"/>
       <c r="B97" s="65"/>
       <c r="C97" s="65"/>
@@ -4507,20 +4797,21 @@
       <c r="H97" s="67"/>
       <c r="I97" s="65"/>
       <c r="J97" s="67"/>
-      <c r="K97" s="77"/>
+      <c r="K97" s="75"/>
       <c r="L97" s="65"/>
       <c r="M97" s="65"/>
-      <c r="N97" s="65"/>
+      <c r="N97" s="101"/>
       <c r="O97" s="65"/>
-      <c r="P97" s="67"/>
-      <c r="Q97" s="66"/>
+      <c r="P97" s="65"/>
+      <c r="Q97" s="67"/>
       <c r="R97" s="66"/>
-      <c r="S97" s="65"/>
+      <c r="S97" s="66"/>
       <c r="T97" s="65"/>
       <c r="U97" s="65"/>
-      <c r="V97" s="66"/>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="V97" s="65"/>
+      <c r="W97" s="66"/>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" s="65"/>
       <c r="B98" s="65"/>
       <c r="C98" s="65"/>
@@ -4531,20 +4822,21 @@
       <c r="H98" s="67"/>
       <c r="I98" s="65"/>
       <c r="J98" s="67"/>
-      <c r="K98" s="77"/>
+      <c r="K98" s="75"/>
       <c r="L98" s="65"/>
       <c r="M98" s="65"/>
-      <c r="N98" s="65"/>
+      <c r="N98" s="101"/>
       <c r="O98" s="65"/>
-      <c r="P98" s="67"/>
-      <c r="Q98" s="66"/>
+      <c r="P98" s="65"/>
+      <c r="Q98" s="67"/>
       <c r="R98" s="66"/>
-      <c r="S98" s="65"/>
+      <c r="S98" s="66"/>
       <c r="T98" s="65"/>
       <c r="U98" s="65"/>
-      <c r="V98" s="66"/>
-    </row>
-    <row r="99" spans="1:22">
+      <c r="V98" s="65"/>
+      <c r="W98" s="66"/>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" s="65"/>
       <c r="B99" s="65"/>
       <c r="C99" s="65"/>
@@ -4555,20 +4847,21 @@
       <c r="H99" s="67"/>
       <c r="I99" s="65"/>
       <c r="J99" s="67"/>
-      <c r="K99" s="77"/>
+      <c r="K99" s="75"/>
       <c r="L99" s="65"/>
       <c r="M99" s="65"/>
-      <c r="N99" s="65"/>
+      <c r="N99" s="101"/>
       <c r="O99" s="65"/>
-      <c r="P99" s="67"/>
-      <c r="Q99" s="66"/>
+      <c r="P99" s="65"/>
+      <c r="Q99" s="67"/>
       <c r="R99" s="66"/>
-      <c r="S99" s="65"/>
+      <c r="S99" s="66"/>
       <c r="T99" s="65"/>
       <c r="U99" s="65"/>
-      <c r="V99" s="66"/>
-    </row>
-    <row r="100" spans="1:22">
+      <c r="V99" s="65"/>
+      <c r="W99" s="66"/>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" s="65"/>
       <c r="B100" s="65"/>
       <c r="C100" s="65"/>
@@ -4579,20 +4872,21 @@
       <c r="H100" s="67"/>
       <c r="I100" s="65"/>
       <c r="J100" s="67"/>
-      <c r="K100" s="77"/>
+      <c r="K100" s="75"/>
       <c r="L100" s="65"/>
       <c r="M100" s="65"/>
-      <c r="N100" s="65"/>
+      <c r="N100" s="101"/>
       <c r="O100" s="65"/>
-      <c r="P100" s="67"/>
-      <c r="Q100" s="66"/>
+      <c r="P100" s="65"/>
+      <c r="Q100" s="67"/>
       <c r="R100" s="66"/>
-      <c r="S100" s="65"/>
+      <c r="S100" s="66"/>
       <c r="T100" s="65"/>
       <c r="U100" s="65"/>
-      <c r="V100" s="66"/>
-    </row>
-    <row r="101" spans="1:22">
+      <c r="V100" s="65"/>
+      <c r="W100" s="66"/>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" s="65"/>
       <c r="B101" s="65"/>
       <c r="C101" s="65"/>
@@ -4603,20 +4897,21 @@
       <c r="H101" s="67"/>
       <c r="I101" s="65"/>
       <c r="J101" s="67"/>
-      <c r="K101" s="77"/>
+      <c r="K101" s="75"/>
       <c r="L101" s="65"/>
       <c r="M101" s="65"/>
-      <c r="N101" s="65"/>
+      <c r="N101" s="101"/>
       <c r="O101" s="65"/>
-      <c r="P101" s="67"/>
-      <c r="Q101" s="66"/>
+      <c r="P101" s="65"/>
+      <c r="Q101" s="67"/>
       <c r="R101" s="66"/>
-      <c r="S101" s="65"/>
+      <c r="S101" s="66"/>
       <c r="T101" s="65"/>
       <c r="U101" s="65"/>
-      <c r="V101" s="66"/>
-    </row>
-    <row r="102" spans="1:22">
+      <c r="V101" s="65"/>
+      <c r="W101" s="66"/>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="65"/>
       <c r="B102" s="65"/>
       <c r="C102" s="65"/>
@@ -4627,20 +4922,21 @@
       <c r="H102" s="67"/>
       <c r="I102" s="65"/>
       <c r="J102" s="67"/>
-      <c r="K102" s="77"/>
+      <c r="K102" s="75"/>
       <c r="L102" s="65"/>
       <c r="M102" s="65"/>
-      <c r="N102" s="65"/>
+      <c r="N102" s="101"/>
       <c r="O102" s="65"/>
-      <c r="P102" s="67"/>
-      <c r="Q102" s="66"/>
+      <c r="P102" s="65"/>
+      <c r="Q102" s="67"/>
       <c r="R102" s="66"/>
-      <c r="S102" s="65"/>
+      <c r="S102" s="66"/>
       <c r="T102" s="65"/>
       <c r="U102" s="65"/>
-      <c r="V102" s="66"/>
-    </row>
-    <row r="103" spans="1:22">
+      <c r="V102" s="65"/>
+      <c r="W102" s="66"/>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="65"/>
       <c r="B103" s="65"/>
       <c r="C103" s="65"/>
@@ -4651,20 +4947,21 @@
       <c r="H103" s="67"/>
       <c r="I103" s="65"/>
       <c r="J103" s="67"/>
-      <c r="K103" s="77"/>
+      <c r="K103" s="75"/>
       <c r="L103" s="65"/>
       <c r="M103" s="65"/>
-      <c r="N103" s="65"/>
+      <c r="N103" s="101"/>
       <c r="O103" s="65"/>
-      <c r="P103" s="67"/>
-      <c r="Q103" s="66"/>
+      <c r="P103" s="65"/>
+      <c r="Q103" s="67"/>
       <c r="R103" s="66"/>
-      <c r="S103" s="65"/>
+      <c r="S103" s="66"/>
       <c r="T103" s="65"/>
       <c r="U103" s="65"/>
-      <c r="V103" s="66"/>
-    </row>
-    <row r="104" spans="1:22">
+      <c r="V103" s="65"/>
+      <c r="W103" s="66"/>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="65"/>
       <c r="B104" s="65"/>
       <c r="C104" s="65"/>
@@ -4675,20 +4972,21 @@
       <c r="H104" s="67"/>
       <c r="I104" s="65"/>
       <c r="J104" s="67"/>
-      <c r="K104" s="77"/>
+      <c r="K104" s="75"/>
       <c r="L104" s="65"/>
       <c r="M104" s="65"/>
-      <c r="N104" s="65"/>
+      <c r="N104" s="101"/>
       <c r="O104" s="65"/>
-      <c r="P104" s="67"/>
-      <c r="Q104" s="66"/>
+      <c r="P104" s="65"/>
+      <c r="Q104" s="67"/>
       <c r="R104" s="66"/>
-      <c r="S104" s="65"/>
+      <c r="S104" s="66"/>
       <c r="T104" s="65"/>
       <c r="U104" s="65"/>
-      <c r="V104" s="66"/>
-    </row>
-    <row r="105" spans="1:22">
+      <c r="V104" s="65"/>
+      <c r="W104" s="66"/>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" s="65"/>
       <c r="B105" s="65"/>
       <c r="C105" s="65"/>
@@ -4699,20 +4997,21 @@
       <c r="H105" s="67"/>
       <c r="I105" s="65"/>
       <c r="J105" s="67"/>
-      <c r="K105" s="77"/>
+      <c r="K105" s="75"/>
       <c r="L105" s="65"/>
       <c r="M105" s="65"/>
-      <c r="N105" s="65"/>
+      <c r="N105" s="101"/>
       <c r="O105" s="65"/>
-      <c r="P105" s="67"/>
-      <c r="Q105" s="66"/>
+      <c r="P105" s="65"/>
+      <c r="Q105" s="67"/>
       <c r="R105" s="66"/>
-      <c r="S105" s="65"/>
+      <c r="S105" s="66"/>
       <c r="T105" s="65"/>
       <c r="U105" s="65"/>
-      <c r="V105" s="66"/>
-    </row>
-    <row r="106" spans="1:22">
+      <c r="V105" s="65"/>
+      <c r="W105" s="66"/>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" s="65"/>
       <c r="B106" s="65"/>
       <c r="C106" s="65"/>
@@ -4723,20 +5022,21 @@
       <c r="H106" s="67"/>
       <c r="I106" s="65"/>
       <c r="J106" s="67"/>
-      <c r="K106" s="77"/>
+      <c r="K106" s="75"/>
       <c r="L106" s="65"/>
       <c r="M106" s="65"/>
-      <c r="N106" s="65"/>
+      <c r="N106" s="101"/>
       <c r="O106" s="65"/>
-      <c r="P106" s="67"/>
-      <c r="Q106" s="66"/>
+      <c r="P106" s="65"/>
+      <c r="Q106" s="67"/>
       <c r="R106" s="66"/>
-      <c r="S106" s="65"/>
+      <c r="S106" s="66"/>
       <c r="T106" s="65"/>
       <c r="U106" s="65"/>
-      <c r="V106" s="66"/>
-    </row>
-    <row r="107" spans="1:22">
+      <c r="V106" s="65"/>
+      <c r="W106" s="66"/>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" s="65"/>
       <c r="B107" s="65"/>
       <c r="C107" s="65"/>
@@ -4747,20 +5047,21 @@
       <c r="H107" s="67"/>
       <c r="I107" s="65"/>
       <c r="J107" s="67"/>
-      <c r="K107" s="77"/>
+      <c r="K107" s="75"/>
       <c r="L107" s="65"/>
       <c r="M107" s="65"/>
-      <c r="N107" s="65"/>
+      <c r="N107" s="101"/>
       <c r="O107" s="65"/>
-      <c r="P107" s="67"/>
-      <c r="Q107" s="66"/>
+      <c r="P107" s="65"/>
+      <c r="Q107" s="67"/>
       <c r="R107" s="66"/>
-      <c r="S107" s="65"/>
+      <c r="S107" s="66"/>
       <c r="T107" s="65"/>
       <c r="U107" s="65"/>
-      <c r="V107" s="66"/>
-    </row>
-    <row r="108" spans="1:22">
+      <c r="V107" s="65"/>
+      <c r="W107" s="66"/>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" s="65"/>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
@@ -4771,20 +5072,21 @@
       <c r="H108" s="67"/>
       <c r="I108" s="65"/>
       <c r="J108" s="67"/>
-      <c r="K108" s="77"/>
+      <c r="K108" s="75"/>
       <c r="L108" s="65"/>
       <c r="M108" s="65"/>
-      <c r="N108" s="65"/>
+      <c r="N108" s="101"/>
       <c r="O108" s="65"/>
-      <c r="P108" s="67"/>
-      <c r="Q108" s="66"/>
+      <c r="P108" s="65"/>
+      <c r="Q108" s="67"/>
       <c r="R108" s="66"/>
-      <c r="S108" s="65"/>
+      <c r="S108" s="66"/>
       <c r="T108" s="65"/>
       <c r="U108" s="65"/>
-      <c r="V108" s="66"/>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="V108" s="65"/>
+      <c r="W108" s="66"/>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" s="65"/>
       <c r="B109" s="65"/>
       <c r="C109" s="65"/>
@@ -4795,20 +5097,21 @@
       <c r="H109" s="67"/>
       <c r="I109" s="65"/>
       <c r="J109" s="67"/>
-      <c r="K109" s="77"/>
+      <c r="K109" s="75"/>
       <c r="L109" s="65"/>
       <c r="M109" s="65"/>
-      <c r="N109" s="65"/>
+      <c r="N109" s="101"/>
       <c r="O109" s="65"/>
-      <c r="P109" s="67"/>
-      <c r="Q109" s="66"/>
+      <c r="P109" s="65"/>
+      <c r="Q109" s="67"/>
       <c r="R109" s="66"/>
-      <c r="S109" s="65"/>
+      <c r="S109" s="66"/>
       <c r="T109" s="65"/>
       <c r="U109" s="65"/>
-      <c r="V109" s="66"/>
-    </row>
-    <row r="110" spans="1:22">
+      <c r="V109" s="65"/>
+      <c r="W109" s="66"/>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="65"/>
       <c r="B110" s="65"/>
       <c r="C110" s="65"/>
@@ -4819,20 +5122,21 @@
       <c r="H110" s="67"/>
       <c r="I110" s="65"/>
       <c r="J110" s="67"/>
-      <c r="K110" s="77"/>
+      <c r="K110" s="75"/>
       <c r="L110" s="65"/>
       <c r="M110" s="65"/>
-      <c r="N110" s="65"/>
+      <c r="N110" s="101"/>
       <c r="O110" s="65"/>
-      <c r="P110" s="67"/>
-      <c r="Q110" s="66"/>
+      <c r="P110" s="65"/>
+      <c r="Q110" s="67"/>
       <c r="R110" s="66"/>
-      <c r="S110" s="65"/>
+      <c r="S110" s="66"/>
       <c r="T110" s="65"/>
       <c r="U110" s="65"/>
-      <c r="V110" s="66"/>
-    </row>
-    <row r="111" spans="1:22">
+      <c r="V110" s="65"/>
+      <c r="W110" s="66"/>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="65"/>
       <c r="B111" s="65"/>
       <c r="C111" s="65"/>
@@ -4843,20 +5147,21 @@
       <c r="H111" s="67"/>
       <c r="I111" s="65"/>
       <c r="J111" s="67"/>
-      <c r="K111" s="77"/>
+      <c r="K111" s="75"/>
       <c r="L111" s="65"/>
       <c r="M111" s="65"/>
-      <c r="N111" s="65"/>
+      <c r="N111" s="101"/>
       <c r="O111" s="65"/>
-      <c r="P111" s="67"/>
-      <c r="Q111" s="66"/>
+      <c r="P111" s="65"/>
+      <c r="Q111" s="67"/>
       <c r="R111" s="66"/>
-      <c r="S111" s="65"/>
+      <c r="S111" s="66"/>
       <c r="T111" s="65"/>
       <c r="U111" s="65"/>
-      <c r="V111" s="66"/>
-    </row>
-    <row r="112" spans="1:22">
+      <c r="V111" s="65"/>
+      <c r="W111" s="66"/>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" s="65"/>
       <c r="B112" s="65"/>
       <c r="C112" s="65"/>
@@ -4867,20 +5172,21 @@
       <c r="H112" s="67"/>
       <c r="I112" s="65"/>
       <c r="J112" s="67"/>
-      <c r="K112" s="77"/>
+      <c r="K112" s="75"/>
       <c r="L112" s="65"/>
       <c r="M112" s="65"/>
-      <c r="N112" s="65"/>
+      <c r="N112" s="101"/>
       <c r="O112" s="65"/>
-      <c r="P112" s="67"/>
-      <c r="Q112" s="66"/>
+      <c r="P112" s="65"/>
+      <c r="Q112" s="67"/>
       <c r="R112" s="66"/>
-      <c r="S112" s="65"/>
+      <c r="S112" s="66"/>
       <c r="T112" s="65"/>
       <c r="U112" s="65"/>
-      <c r="V112" s="66"/>
-    </row>
-    <row r="113" spans="1:22">
+      <c r="V112" s="65"/>
+      <c r="W112" s="66"/>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" s="65"/>
       <c r="B113" s="65"/>
       <c r="C113" s="65"/>
@@ -4891,20 +5197,21 @@
       <c r="H113" s="67"/>
       <c r="I113" s="65"/>
       <c r="J113" s="67"/>
-      <c r="K113" s="77"/>
+      <c r="K113" s="75"/>
       <c r="L113" s="65"/>
       <c r="M113" s="65"/>
-      <c r="N113" s="65"/>
+      <c r="N113" s="101"/>
       <c r="O113" s="65"/>
-      <c r="P113" s="67"/>
-      <c r="Q113" s="66"/>
+      <c r="P113" s="65"/>
+      <c r="Q113" s="67"/>
       <c r="R113" s="66"/>
-      <c r="S113" s="65"/>
+      <c r="S113" s="66"/>
       <c r="T113" s="65"/>
       <c r="U113" s="65"/>
-      <c r="V113" s="66"/>
-    </row>
-    <row r="114" spans="1:22">
+      <c r="V113" s="65"/>
+      <c r="W113" s="66"/>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" s="65"/>
       <c r="B114" s="65"/>
       <c r="C114" s="65"/>
@@ -4915,20 +5222,21 @@
       <c r="H114" s="67"/>
       <c r="I114" s="65"/>
       <c r="J114" s="67"/>
-      <c r="K114" s="77"/>
+      <c r="K114" s="75"/>
       <c r="L114" s="65"/>
       <c r="M114" s="65"/>
-      <c r="N114" s="65"/>
+      <c r="N114" s="101"/>
       <c r="O114" s="65"/>
-      <c r="P114" s="67"/>
-      <c r="Q114" s="66"/>
+      <c r="P114" s="65"/>
+      <c r="Q114" s="67"/>
       <c r="R114" s="66"/>
-      <c r="S114" s="65"/>
+      <c r="S114" s="66"/>
       <c r="T114" s="65"/>
       <c r="U114" s="65"/>
-      <c r="V114" s="66"/>
-    </row>
-    <row r="115" spans="1:22">
+      <c r="V114" s="65"/>
+      <c r="W114" s="66"/>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" s="65"/>
       <c r="B115" s="65"/>
       <c r="C115" s="65"/>
@@ -4939,20 +5247,21 @@
       <c r="H115" s="67"/>
       <c r="I115" s="65"/>
       <c r="J115" s="67"/>
-      <c r="K115" s="77"/>
+      <c r="K115" s="75"/>
       <c r="L115" s="65"/>
       <c r="M115" s="65"/>
-      <c r="N115" s="65"/>
+      <c r="N115" s="101"/>
       <c r="O115" s="65"/>
-      <c r="P115" s="67"/>
-      <c r="Q115" s="66"/>
+      <c r="P115" s="65"/>
+      <c r="Q115" s="67"/>
       <c r="R115" s="66"/>
-      <c r="S115" s="65"/>
+      <c r="S115" s="66"/>
       <c r="T115" s="65"/>
       <c r="U115" s="65"/>
-      <c r="V115" s="66"/>
-    </row>
-    <row r="116" spans="1:22">
+      <c r="V115" s="65"/>
+      <c r="W115" s="66"/>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" s="65"/>
       <c r="B116" s="65"/>
       <c r="C116" s="65"/>
@@ -4963,20 +5272,21 @@
       <c r="H116" s="67"/>
       <c r="I116" s="65"/>
       <c r="J116" s="67"/>
-      <c r="K116" s="77"/>
+      <c r="K116" s="75"/>
       <c r="L116" s="65"/>
       <c r="M116" s="65"/>
-      <c r="N116" s="65"/>
+      <c r="N116" s="101"/>
       <c r="O116" s="65"/>
-      <c r="P116" s="67"/>
-      <c r="Q116" s="66"/>
+      <c r="P116" s="65"/>
+      <c r="Q116" s="67"/>
       <c r="R116" s="66"/>
-      <c r="S116" s="65"/>
+      <c r="S116" s="66"/>
       <c r="T116" s="65"/>
       <c r="U116" s="65"/>
-      <c r="V116" s="66"/>
-    </row>
-    <row r="117" spans="1:22">
+      <c r="V116" s="65"/>
+      <c r="W116" s="66"/>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" s="65"/>
       <c r="B117" s="65"/>
       <c r="C117" s="65"/>
@@ -4987,20 +5297,21 @@
       <c r="H117" s="67"/>
       <c r="I117" s="65"/>
       <c r="J117" s="67"/>
-      <c r="K117" s="77"/>
+      <c r="K117" s="75"/>
       <c r="L117" s="65"/>
       <c r="M117" s="65"/>
-      <c r="N117" s="65"/>
+      <c r="N117" s="101"/>
       <c r="O117" s="65"/>
-      <c r="P117" s="67"/>
-      <c r="Q117" s="66"/>
+      <c r="P117" s="65"/>
+      <c r="Q117" s="67"/>
       <c r="R117" s="66"/>
-      <c r="S117" s="65"/>
+      <c r="S117" s="66"/>
       <c r="T117" s="65"/>
       <c r="U117" s="65"/>
-      <c r="V117" s="66"/>
-    </row>
-    <row r="118" spans="1:22">
+      <c r="V117" s="65"/>
+      <c r="W117" s="66"/>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" s="65"/>
       <c r="B118" s="65"/>
       <c r="C118" s="65"/>
@@ -5011,20 +5322,21 @@
       <c r="H118" s="67"/>
       <c r="I118" s="65"/>
       <c r="J118" s="67"/>
-      <c r="K118" s="77"/>
+      <c r="K118" s="75"/>
       <c r="L118" s="65"/>
       <c r="M118" s="65"/>
-      <c r="N118" s="65"/>
+      <c r="N118" s="101"/>
       <c r="O118" s="65"/>
-      <c r="P118" s="67"/>
-      <c r="Q118" s="66"/>
+      <c r="P118" s="65"/>
+      <c r="Q118" s="67"/>
       <c r="R118" s="66"/>
-      <c r="S118" s="65"/>
+      <c r="S118" s="66"/>
       <c r="T118" s="65"/>
       <c r="U118" s="65"/>
-      <c r="V118" s="66"/>
-    </row>
-    <row r="119" spans="1:22">
+      <c r="V118" s="65"/>
+      <c r="W118" s="66"/>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" s="65"/>
       <c r="B119" s="65"/>
       <c r="C119" s="65"/>
@@ -5035,20 +5347,21 @@
       <c r="H119" s="67"/>
       <c r="I119" s="65"/>
       <c r="J119" s="67"/>
-      <c r="K119" s="77"/>
+      <c r="K119" s="75"/>
       <c r="L119" s="65"/>
       <c r="M119" s="65"/>
-      <c r="N119" s="65"/>
+      <c r="N119" s="101"/>
       <c r="O119" s="65"/>
-      <c r="P119" s="67"/>
-      <c r="Q119" s="66"/>
+      <c r="P119" s="65"/>
+      <c r="Q119" s="67"/>
       <c r="R119" s="66"/>
-      <c r="S119" s="65"/>
+      <c r="S119" s="66"/>
       <c r="T119" s="65"/>
       <c r="U119" s="65"/>
-      <c r="V119" s="66"/>
-    </row>
-    <row r="120" spans="1:22">
+      <c r="V119" s="65"/>
+      <c r="W119" s="66"/>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" s="65"/>
       <c r="B120" s="65"/>
       <c r="C120" s="65"/>
@@ -5059,20 +5372,21 @@
       <c r="H120" s="67"/>
       <c r="I120" s="65"/>
       <c r="J120" s="67"/>
-      <c r="K120" s="77"/>
+      <c r="K120" s="75"/>
       <c r="L120" s="65"/>
       <c r="M120" s="65"/>
-      <c r="N120" s="65"/>
+      <c r="N120" s="101"/>
       <c r="O120" s="65"/>
-      <c r="P120" s="67"/>
-      <c r="Q120" s="66"/>
+      <c r="P120" s="65"/>
+      <c r="Q120" s="67"/>
       <c r="R120" s="66"/>
-      <c r="S120" s="65"/>
+      <c r="S120" s="66"/>
       <c r="T120" s="65"/>
       <c r="U120" s="65"/>
-      <c r="V120" s="66"/>
-    </row>
-    <row r="121" spans="1:22">
+      <c r="V120" s="65"/>
+      <c r="W120" s="66"/>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" s="65"/>
       <c r="B121" s="65"/>
       <c r="C121" s="65"/>
@@ -5083,20 +5397,21 @@
       <c r="H121" s="67"/>
       <c r="I121" s="65"/>
       <c r="J121" s="67"/>
-      <c r="K121" s="77"/>
+      <c r="K121" s="75"/>
       <c r="L121" s="65"/>
       <c r="M121" s="65"/>
-      <c r="N121" s="65"/>
+      <c r="N121" s="101"/>
       <c r="O121" s="65"/>
-      <c r="P121" s="67"/>
-      <c r="Q121" s="66"/>
+      <c r="P121" s="65"/>
+      <c r="Q121" s="67"/>
       <c r="R121" s="66"/>
-      <c r="S121" s="65"/>
+      <c r="S121" s="66"/>
       <c r="T121" s="65"/>
       <c r="U121" s="65"/>
-      <c r="V121" s="66"/>
-    </row>
-    <row r="122" spans="1:22">
+      <c r="V121" s="65"/>
+      <c r="W121" s="66"/>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" s="65"/>
       <c r="B122" s="65"/>
       <c r="C122" s="65"/>
@@ -5107,20 +5422,21 @@
       <c r="H122" s="67"/>
       <c r="I122" s="65"/>
       <c r="J122" s="67"/>
-      <c r="K122" s="77"/>
+      <c r="K122" s="75"/>
       <c r="L122" s="65"/>
       <c r="M122" s="65"/>
-      <c r="N122" s="65"/>
+      <c r="N122" s="101"/>
       <c r="O122" s="65"/>
-      <c r="P122" s="67"/>
-      <c r="Q122" s="66"/>
+      <c r="P122" s="65"/>
+      <c r="Q122" s="67"/>
       <c r="R122" s="66"/>
-      <c r="S122" s="65"/>
+      <c r="S122" s="66"/>
       <c r="T122" s="65"/>
       <c r="U122" s="65"/>
-      <c r="V122" s="66"/>
-    </row>
-    <row r="123" spans="1:22">
+      <c r="V122" s="65"/>
+      <c r="W122" s="66"/>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" s="65"/>
       <c r="B123" s="65"/>
       <c r="C123" s="65"/>
@@ -5131,20 +5447,21 @@
       <c r="H123" s="67"/>
       <c r="I123" s="65"/>
       <c r="J123" s="67"/>
-      <c r="K123" s="77"/>
+      <c r="K123" s="75"/>
       <c r="L123" s="65"/>
       <c r="M123" s="65"/>
-      <c r="N123" s="65"/>
+      <c r="N123" s="101"/>
       <c r="O123" s="65"/>
-      <c r="P123" s="67"/>
-      <c r="Q123" s="66"/>
+      <c r="P123" s="65"/>
+      <c r="Q123" s="67"/>
       <c r="R123" s="66"/>
-      <c r="S123" s="65"/>
+      <c r="S123" s="66"/>
       <c r="T123" s="65"/>
       <c r="U123" s="65"/>
-      <c r="V123" s="66"/>
-    </row>
-    <row r="124" spans="1:22">
+      <c r="V123" s="65"/>
+      <c r="W123" s="66"/>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" s="65"/>
       <c r="B124" s="65"/>
       <c r="C124" s="65"/>
@@ -5155,20 +5472,21 @@
       <c r="H124" s="67"/>
       <c r="I124" s="65"/>
       <c r="J124" s="67"/>
-      <c r="K124" s="77"/>
+      <c r="K124" s="75"/>
       <c r="L124" s="65"/>
       <c r="M124" s="65"/>
-      <c r="N124" s="65"/>
+      <c r="N124" s="101"/>
       <c r="O124" s="65"/>
-      <c r="P124" s="67"/>
-      <c r="Q124" s="66"/>
+      <c r="P124" s="65"/>
+      <c r="Q124" s="67"/>
       <c r="R124" s="66"/>
-      <c r="S124" s="65"/>
+      <c r="S124" s="66"/>
       <c r="T124" s="65"/>
       <c r="U124" s="65"/>
-      <c r="V124" s="66"/>
-    </row>
-    <row r="125" spans="1:22">
+      <c r="V124" s="65"/>
+      <c r="W124" s="66"/>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" s="65"/>
       <c r="B125" s="65"/>
       <c r="C125" s="65"/>
@@ -5179,20 +5497,21 @@
       <c r="H125" s="67"/>
       <c r="I125" s="65"/>
       <c r="J125" s="67"/>
-      <c r="K125" s="77"/>
+      <c r="K125" s="75"/>
       <c r="L125" s="65"/>
       <c r="M125" s="65"/>
-      <c r="N125" s="65"/>
+      <c r="N125" s="101"/>
       <c r="O125" s="65"/>
-      <c r="P125" s="67"/>
-      <c r="Q125" s="66"/>
+      <c r="P125" s="65"/>
+      <c r="Q125" s="67"/>
       <c r="R125" s="66"/>
-      <c r="S125" s="65"/>
+      <c r="S125" s="66"/>
       <c r="T125" s="65"/>
       <c r="U125" s="65"/>
-      <c r="V125" s="66"/>
-    </row>
-    <row r="126" spans="1:22">
+      <c r="V125" s="65"/>
+      <c r="W125" s="66"/>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" s="65"/>
       <c r="B126" s="65"/>
       <c r="C126" s="65"/>
@@ -5203,20 +5522,21 @@
       <c r="H126" s="67"/>
       <c r="I126" s="65"/>
       <c r="J126" s="67"/>
-      <c r="K126" s="77"/>
+      <c r="K126" s="75"/>
       <c r="L126" s="65"/>
       <c r="M126" s="65"/>
-      <c r="N126" s="65"/>
+      <c r="N126" s="101"/>
       <c r="O126" s="65"/>
-      <c r="P126" s="67"/>
-      <c r="Q126" s="66"/>
+      <c r="P126" s="65"/>
+      <c r="Q126" s="67"/>
       <c r="R126" s="66"/>
-      <c r="S126" s="65"/>
+      <c r="S126" s="66"/>
       <c r="T126" s="65"/>
       <c r="U126" s="65"/>
-      <c r="V126" s="66"/>
-    </row>
-    <row r="127" spans="1:22">
+      <c r="V126" s="65"/>
+      <c r="W126" s="66"/>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" s="65"/>
       <c r="B127" s="65"/>
       <c r="C127" s="65"/>
@@ -5227,20 +5547,21 @@
       <c r="H127" s="67"/>
       <c r="I127" s="65"/>
       <c r="J127" s="67"/>
-      <c r="K127" s="77"/>
+      <c r="K127" s="75"/>
       <c r="L127" s="65"/>
       <c r="M127" s="65"/>
-      <c r="N127" s="65"/>
+      <c r="N127" s="101"/>
       <c r="O127" s="65"/>
-      <c r="P127" s="67"/>
-      <c r="Q127" s="66"/>
+      <c r="P127" s="65"/>
+      <c r="Q127" s="67"/>
       <c r="R127" s="66"/>
-      <c r="S127" s="65"/>
+      <c r="S127" s="66"/>
       <c r="T127" s="65"/>
       <c r="U127" s="65"/>
-      <c r="V127" s="66"/>
-    </row>
-    <row r="128" spans="1:22">
+      <c r="V127" s="65"/>
+      <c r="W127" s="66"/>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" s="65"/>
       <c r="B128" s="65"/>
       <c r="C128" s="65"/>
@@ -5251,20 +5572,21 @@
       <c r="H128" s="67"/>
       <c r="I128" s="65"/>
       <c r="J128" s="67"/>
-      <c r="K128" s="77"/>
+      <c r="K128" s="75"/>
       <c r="L128" s="65"/>
       <c r="M128" s="65"/>
-      <c r="N128" s="65"/>
+      <c r="N128" s="101"/>
       <c r="O128" s="65"/>
-      <c r="P128" s="67"/>
-      <c r="Q128" s="66"/>
+      <c r="P128" s="65"/>
+      <c r="Q128" s="67"/>
       <c r="R128" s="66"/>
-      <c r="S128" s="65"/>
+      <c r="S128" s="66"/>
       <c r="T128" s="65"/>
       <c r="U128" s="65"/>
-      <c r="V128" s="66"/>
-    </row>
-    <row r="129" spans="1:22">
+      <c r="V128" s="65"/>
+      <c r="W128" s="66"/>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" s="65"/>
       <c r="B129" s="65"/>
       <c r="C129" s="65"/>
@@ -5275,16 +5597,17 @@
       <c r="H129" s="67"/>
       <c r="I129" s="65"/>
       <c r="J129" s="67"/>
-      <c r="K129" s="77"/>
+      <c r="K129" s="75"/>
       <c r="L129" s="65"/>
       <c r="M129" s="65"/>
-      <c r="N129" s="65"/>
+      <c r="N129" s="101"/>
       <c r="O129" s="65"/>
-      <c r="P129" s="67"/>
-      <c r="Q129" s="66"/>
-      <c r="V129" s="66"/>
-    </row>
-    <row r="130" spans="1:22">
+      <c r="P129" s="65"/>
+      <c r="Q129" s="67"/>
+      <c r="R129" s="66"/>
+      <c r="W129" s="66"/>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" s="65"/>
       <c r="B130" s="65"/>
       <c r="C130" s="65"/>
@@ -5295,16 +5618,17 @@
       <c r="H130" s="67"/>
       <c r="I130" s="65"/>
       <c r="J130" s="67"/>
-      <c r="K130" s="77"/>
+      <c r="K130" s="75"/>
       <c r="L130" s="65"/>
       <c r="M130" s="65"/>
-      <c r="N130" s="65"/>
+      <c r="N130" s="101"/>
       <c r="O130" s="65"/>
-      <c r="P130" s="67"/>
-      <c r="Q130" s="66"/>
-      <c r="V130" s="66"/>
-    </row>
-    <row r="131" spans="1:22">
+      <c r="P130" s="65"/>
+      <c r="Q130" s="67"/>
+      <c r="R130" s="66"/>
+      <c r="W130" s="66"/>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" s="65"/>
       <c r="B131" s="65"/>
       <c r="C131" s="65"/>
@@ -5315,16 +5639,17 @@
       <c r="H131" s="67"/>
       <c r="I131" s="65"/>
       <c r="J131" s="67"/>
-      <c r="K131" s="77"/>
+      <c r="K131" s="75"/>
       <c r="L131" s="65"/>
       <c r="M131" s="65"/>
-      <c r="N131" s="65"/>
+      <c r="N131" s="101"/>
       <c r="O131" s="65"/>
-      <c r="P131" s="67"/>
-      <c r="Q131" s="66"/>
-      <c r="V131" s="66"/>
-    </row>
-    <row r="132" spans="1:22">
+      <c r="P131" s="65"/>
+      <c r="Q131" s="67"/>
+      <c r="R131" s="66"/>
+      <c r="W131" s="66"/>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" s="65"/>
       <c r="B132" s="65"/>
       <c r="C132" s="65"/>
@@ -5335,16 +5660,17 @@
       <c r="H132" s="67"/>
       <c r="I132" s="65"/>
       <c r="J132" s="67"/>
-      <c r="K132" s="77"/>
+      <c r="K132" s="75"/>
       <c r="L132" s="65"/>
       <c r="M132" s="65"/>
-      <c r="N132" s="65"/>
+      <c r="N132" s="101"/>
       <c r="O132" s="65"/>
-      <c r="P132" s="67"/>
-      <c r="Q132" s="66"/>
-      <c r="V132" s="66"/>
-    </row>
-    <row r="133" spans="1:22">
+      <c r="P132" s="65"/>
+      <c r="Q132" s="67"/>
+      <c r="R132" s="66"/>
+      <c r="W132" s="66"/>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" s="65"/>
       <c r="B133" s="65"/>
       <c r="C133" s="65"/>
@@ -5355,16 +5681,17 @@
       <c r="H133" s="67"/>
       <c r="I133" s="65"/>
       <c r="J133" s="67"/>
-      <c r="K133" s="77"/>
+      <c r="K133" s="75"/>
       <c r="L133" s="65"/>
       <c r="M133" s="65"/>
-      <c r="N133" s="65"/>
+      <c r="N133" s="101"/>
       <c r="O133" s="65"/>
-      <c r="P133" s="67"/>
-      <c r="Q133" s="66"/>
-      <c r="V133" s="66"/>
-    </row>
-    <row r="134" spans="1:22">
+      <c r="P133" s="65"/>
+      <c r="Q133" s="67"/>
+      <c r="R133" s="66"/>
+      <c r="W133" s="66"/>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" s="65"/>
       <c r="B134" s="65"/>
       <c r="C134" s="65"/>
@@ -5375,16 +5702,17 @@
       <c r="H134" s="67"/>
       <c r="I134" s="65"/>
       <c r="J134" s="67"/>
-      <c r="K134" s="77"/>
+      <c r="K134" s="75"/>
       <c r="L134" s="65"/>
       <c r="M134" s="65"/>
-      <c r="N134" s="65"/>
+      <c r="N134" s="101"/>
       <c r="O134" s="65"/>
-      <c r="P134" s="67"/>
-      <c r="Q134" s="66"/>
-      <c r="V134" s="66"/>
-    </row>
-    <row r="135" spans="1:22">
+      <c r="P134" s="65"/>
+      <c r="Q134" s="67"/>
+      <c r="R134" s="66"/>
+      <c r="W134" s="66"/>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" s="65"/>
       <c r="B135" s="65"/>
       <c r="C135" s="65"/>
@@ -5395,16 +5723,17 @@
       <c r="H135" s="67"/>
       <c r="I135" s="65"/>
       <c r="J135" s="67"/>
-      <c r="K135" s="77"/>
+      <c r="K135" s="75"/>
       <c r="L135" s="65"/>
       <c r="M135" s="65"/>
-      <c r="N135" s="65"/>
+      <c r="N135" s="101"/>
       <c r="O135" s="65"/>
-      <c r="P135" s="67"/>
-      <c r="Q135" s="66"/>
-      <c r="V135" s="66"/>
-    </row>
-    <row r="136" spans="1:22">
+      <c r="P135" s="65"/>
+      <c r="Q135" s="67"/>
+      <c r="R135" s="66"/>
+      <c r="W135" s="66"/>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" s="65"/>
       <c r="B136" s="65"/>
       <c r="C136" s="65"/>
@@ -5415,16 +5744,17 @@
       <c r="H136" s="67"/>
       <c r="I136" s="65"/>
       <c r="J136" s="67"/>
-      <c r="K136" s="77"/>
+      <c r="K136" s="75"/>
       <c r="L136" s="65"/>
       <c r="M136" s="65"/>
-      <c r="N136" s="65"/>
+      <c r="N136" s="101"/>
       <c r="O136" s="65"/>
-      <c r="P136" s="67"/>
-      <c r="Q136" s="66"/>
-      <c r="V136" s="66"/>
-    </row>
-    <row r="137" spans="1:22">
+      <c r="P136" s="65"/>
+      <c r="Q136" s="67"/>
+      <c r="R136" s="66"/>
+      <c r="W136" s="66"/>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" s="65"/>
       <c r="B137" s="65"/>
       <c r="C137" s="65"/>
@@ -5435,16 +5765,17 @@
       <c r="H137" s="67"/>
       <c r="I137" s="65"/>
       <c r="J137" s="67"/>
-      <c r="K137" s="77"/>
+      <c r="K137" s="75"/>
       <c r="L137" s="65"/>
       <c r="M137" s="65"/>
-      <c r="N137" s="65"/>
+      <c r="N137" s="101"/>
       <c r="O137" s="65"/>
-      <c r="P137" s="67"/>
-      <c r="Q137" s="66"/>
-      <c r="V137" s="66"/>
-    </row>
-    <row r="138" spans="1:22">
+      <c r="P137" s="65"/>
+      <c r="Q137" s="67"/>
+      <c r="R137" s="66"/>
+      <c r="W137" s="66"/>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" s="65"/>
       <c r="B138" s="65"/>
       <c r="C138" s="65"/>
@@ -5455,16 +5786,17 @@
       <c r="H138" s="67"/>
       <c r="I138" s="65"/>
       <c r="J138" s="67"/>
-      <c r="K138" s="77"/>
+      <c r="K138" s="75"/>
       <c r="L138" s="65"/>
       <c r="M138" s="65"/>
-      <c r="N138" s="65"/>
+      <c r="N138" s="101"/>
       <c r="O138" s="65"/>
-      <c r="P138" s="67"/>
-      <c r="Q138" s="66"/>
-      <c r="V138" s="66"/>
-    </row>
-    <row r="139" spans="1:22">
+      <c r="P138" s="65"/>
+      <c r="Q138" s="67"/>
+      <c r="R138" s="66"/>
+      <c r="W138" s="66"/>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" s="65"/>
       <c r="B139" s="65"/>
       <c r="C139" s="65"/>
@@ -5475,16 +5807,17 @@
       <c r="H139" s="67"/>
       <c r="I139" s="65"/>
       <c r="J139" s="67"/>
-      <c r="K139" s="77"/>
+      <c r="K139" s="75"/>
       <c r="L139" s="65"/>
       <c r="M139" s="65"/>
-      <c r="N139" s="65"/>
+      <c r="N139" s="101"/>
       <c r="O139" s="65"/>
-      <c r="P139" s="67"/>
-      <c r="Q139" s="66"/>
-      <c r="V139" s="66"/>
-    </row>
-    <row r="140" spans="1:22">
+      <c r="P139" s="65"/>
+      <c r="Q139" s="67"/>
+      <c r="R139" s="66"/>
+      <c r="W139" s="66"/>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" s="65"/>
       <c r="B140" s="65"/>
       <c r="C140" s="65"/>
@@ -5495,16 +5828,17 @@
       <c r="H140" s="67"/>
       <c r="I140" s="65"/>
       <c r="J140" s="67"/>
-      <c r="K140" s="77"/>
+      <c r="K140" s="75"/>
       <c r="L140" s="65"/>
       <c r="M140" s="65"/>
-      <c r="N140" s="65"/>
+      <c r="N140" s="101"/>
       <c r="O140" s="65"/>
-      <c r="P140" s="67"/>
-      <c r="Q140" s="66"/>
-      <c r="V140" s="66"/>
-    </row>
-    <row r="141" spans="1:22">
+      <c r="P140" s="65"/>
+      <c r="Q140" s="67"/>
+      <c r="R140" s="66"/>
+      <c r="W140" s="66"/>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" s="65"/>
       <c r="B141" s="65"/>
       <c r="C141" s="65"/>
@@ -5515,16 +5849,17 @@
       <c r="H141" s="67"/>
       <c r="I141" s="65"/>
       <c r="J141" s="67"/>
-      <c r="K141" s="77"/>
+      <c r="K141" s="75"/>
       <c r="L141" s="65"/>
       <c r="M141" s="65"/>
-      <c r="N141" s="65"/>
+      <c r="N141" s="101"/>
       <c r="O141" s="65"/>
-      <c r="P141" s="67"/>
-      <c r="Q141" s="66"/>
-      <c r="V141" s="66"/>
-    </row>
-    <row r="142" spans="1:22">
+      <c r="P141" s="65"/>
+      <c r="Q141" s="67"/>
+      <c r="R141" s="66"/>
+      <c r="W141" s="66"/>
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142" s="65"/>
       <c r="B142" s="65"/>
       <c r="C142" s="65"/>
@@ -5535,16 +5870,17 @@
       <c r="H142" s="67"/>
       <c r="I142" s="65"/>
       <c r="J142" s="67"/>
-      <c r="K142" s="77"/>
+      <c r="K142" s="75"/>
       <c r="L142" s="65"/>
       <c r="M142" s="65"/>
-      <c r="N142" s="65"/>
+      <c r="N142" s="101"/>
       <c r="O142" s="65"/>
-      <c r="P142" s="67"/>
-      <c r="Q142" s="66"/>
-      <c r="V142" s="66"/>
-    </row>
-    <row r="143" spans="1:22">
+      <c r="P142" s="65"/>
+      <c r="Q142" s="67"/>
+      <c r="R142" s="66"/>
+      <c r="W142" s="66"/>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" s="65"/>
       <c r="B143" s="65"/>
       <c r="C143" s="65"/>
@@ -5555,16 +5891,17 @@
       <c r="H143" s="67"/>
       <c r="I143" s="65"/>
       <c r="J143" s="67"/>
-      <c r="K143" s="77"/>
+      <c r="K143" s="75"/>
       <c r="L143" s="65"/>
       <c r="M143" s="65"/>
-      <c r="N143" s="65"/>
+      <c r="N143" s="101"/>
       <c r="O143" s="65"/>
-      <c r="P143" s="67"/>
-      <c r="Q143" s="66"/>
-      <c r="V143" s="66"/>
-    </row>
-    <row r="144" spans="1:22">
+      <c r="P143" s="65"/>
+      <c r="Q143" s="67"/>
+      <c r="R143" s="66"/>
+      <c r="W143" s="66"/>
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144" s="65"/>
       <c r="B144" s="65"/>
       <c r="C144" s="65"/>
@@ -5575,16 +5912,17 @@
       <c r="H144" s="67"/>
       <c r="I144" s="65"/>
       <c r="J144" s="67"/>
-      <c r="K144" s="77"/>
+      <c r="K144" s="75"/>
       <c r="L144" s="65"/>
       <c r="M144" s="65"/>
-      <c r="N144" s="65"/>
+      <c r="N144" s="101"/>
       <c r="O144" s="65"/>
-      <c r="P144" s="67"/>
-      <c r="Q144" s="66"/>
-      <c r="V144" s="66"/>
-    </row>
-    <row r="145" spans="1:22">
+      <c r="P144" s="65"/>
+      <c r="Q144" s="67"/>
+      <c r="R144" s="66"/>
+      <c r="W144" s="66"/>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" s="65"/>
       <c r="B145" s="65"/>
       <c r="C145" s="65"/>
@@ -5595,16 +5933,17 @@
       <c r="H145" s="67"/>
       <c r="I145" s="65"/>
       <c r="J145" s="67"/>
-      <c r="K145" s="77"/>
+      <c r="K145" s="75"/>
       <c r="L145" s="65"/>
       <c r="M145" s="65"/>
-      <c r="N145" s="65"/>
+      <c r="N145" s="101"/>
       <c r="O145" s="65"/>
-      <c r="P145" s="67"/>
-      <c r="Q145" s="66"/>
-      <c r="V145" s="66"/>
-    </row>
-    <row r="146" spans="1:22">
+      <c r="P145" s="65"/>
+      <c r="Q145" s="67"/>
+      <c r="R145" s="66"/>
+      <c r="W145" s="66"/>
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146" s="65"/>
       <c r="B146" s="65"/>
       <c r="C146" s="65"/>
@@ -5615,16 +5954,17 @@
       <c r="H146" s="67"/>
       <c r="I146" s="65"/>
       <c r="J146" s="67"/>
-      <c r="K146" s="77"/>
+      <c r="K146" s="75"/>
       <c r="L146" s="65"/>
       <c r="M146" s="65"/>
-      <c r="N146" s="65"/>
+      <c r="N146" s="101"/>
       <c r="O146" s="65"/>
-      <c r="P146" s="67"/>
-      <c r="Q146" s="66"/>
-      <c r="V146" s="66"/>
-    </row>
-    <row r="147" spans="1:22">
+      <c r="P146" s="65"/>
+      <c r="Q146" s="67"/>
+      <c r="R146" s="66"/>
+      <c r="W146" s="66"/>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" s="65"/>
       <c r="B147" s="65"/>
       <c r="C147" s="65"/>
@@ -5635,16 +5975,17 @@
       <c r="H147" s="67"/>
       <c r="I147" s="65"/>
       <c r="J147" s="67"/>
-      <c r="K147" s="77"/>
+      <c r="K147" s="75"/>
       <c r="L147" s="65"/>
       <c r="M147" s="65"/>
-      <c r="N147" s="65"/>
+      <c r="N147" s="101"/>
       <c r="O147" s="65"/>
-      <c r="P147" s="67"/>
-      <c r="Q147" s="66"/>
-      <c r="V147" s="66"/>
-    </row>
-    <row r="148" spans="1:22">
+      <c r="P147" s="65"/>
+      <c r="Q147" s="67"/>
+      <c r="R147" s="66"/>
+      <c r="W147" s="66"/>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" s="65"/>
       <c r="B148" s="65"/>
       <c r="C148" s="65"/>
@@ -5655,16 +5996,17 @@
       <c r="H148" s="67"/>
       <c r="I148" s="65"/>
       <c r="J148" s="67"/>
-      <c r="K148" s="77"/>
+      <c r="K148" s="75"/>
       <c r="L148" s="65"/>
       <c r="M148" s="65"/>
-      <c r="N148" s="65"/>
+      <c r="N148" s="101"/>
       <c r="O148" s="65"/>
-      <c r="P148" s="67"/>
-      <c r="Q148" s="66"/>
-      <c r="V148" s="66"/>
-    </row>
-    <row r="149" spans="1:22">
+      <c r="P148" s="65"/>
+      <c r="Q148" s="67"/>
+      <c r="R148" s="66"/>
+      <c r="W148" s="66"/>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" s="65"/>
       <c r="B149" s="65"/>
       <c r="C149" s="65"/>
@@ -5675,16 +6017,17 @@
       <c r="H149" s="67"/>
       <c r="I149" s="65"/>
       <c r="J149" s="67"/>
-      <c r="K149" s="77"/>
+      <c r="K149" s="75"/>
       <c r="L149" s="65"/>
       <c r="M149" s="65"/>
-      <c r="N149" s="65"/>
+      <c r="N149" s="101"/>
       <c r="O149" s="65"/>
-      <c r="P149" s="67"/>
-      <c r="Q149" s="66"/>
-      <c r="V149" s="66"/>
-    </row>
-    <row r="150" spans="1:22">
+      <c r="P149" s="65"/>
+      <c r="Q149" s="67"/>
+      <c r="R149" s="66"/>
+      <c r="W149" s="66"/>
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150" s="65"/>
       <c r="B150" s="65"/>
       <c r="C150" s="65"/>
@@ -5695,16 +6038,17 @@
       <c r="H150" s="67"/>
       <c r="I150" s="65"/>
       <c r="J150" s="67"/>
-      <c r="K150" s="77"/>
+      <c r="K150" s="75"/>
       <c r="L150" s="65"/>
       <c r="M150" s="65"/>
-      <c r="N150" s="65"/>
+      <c r="N150" s="101"/>
       <c r="O150" s="65"/>
-      <c r="P150" s="67"/>
-      <c r="Q150" s="66"/>
-      <c r="V150" s="66"/>
-    </row>
-    <row r="151" spans="1:22">
+      <c r="P150" s="65"/>
+      <c r="Q150" s="67"/>
+      <c r="R150" s="66"/>
+      <c r="W150" s="66"/>
+    </row>
+    <row r="151" spans="1:23">
       <c r="A151" s="65"/>
       <c r="B151" s="65"/>
       <c r="C151" s="65"/>
@@ -5715,16 +6059,17 @@
       <c r="H151" s="67"/>
       <c r="I151" s="65"/>
       <c r="J151" s="67"/>
-      <c r="K151" s="77"/>
+      <c r="K151" s="75"/>
       <c r="L151" s="65"/>
       <c r="M151" s="65"/>
-      <c r="N151" s="65"/>
+      <c r="N151" s="101"/>
       <c r="O151" s="65"/>
-      <c r="P151" s="67"/>
-      <c r="Q151" s="66"/>
-      <c r="V151" s="66"/>
-    </row>
-    <row r="152" spans="1:22">
+      <c r="P151" s="65"/>
+      <c r="Q151" s="67"/>
+      <c r="R151" s="66"/>
+      <c r="W151" s="66"/>
+    </row>
+    <row r="152" spans="1:23">
       <c r="A152" s="65"/>
       <c r="B152" s="65"/>
       <c r="C152" s="65"/>
@@ -5735,16 +6080,17 @@
       <c r="H152" s="67"/>
       <c r="I152" s="65"/>
       <c r="J152" s="67"/>
-      <c r="K152" s="77"/>
+      <c r="K152" s="75"/>
       <c r="L152" s="65"/>
       <c r="M152" s="65"/>
-      <c r="N152" s="65"/>
+      <c r="N152" s="101"/>
       <c r="O152" s="65"/>
-      <c r="P152" s="67"/>
-      <c r="Q152" s="66"/>
-      <c r="V152" s="66"/>
-    </row>
-    <row r="153" spans="1:22">
+      <c r="P152" s="65"/>
+      <c r="Q152" s="67"/>
+      <c r="R152" s="66"/>
+      <c r="W152" s="66"/>
+    </row>
+    <row r="153" spans="1:23">
       <c r="A153" s="65"/>
       <c r="B153" s="65"/>
       <c r="C153" s="65"/>
@@ -5755,16 +6101,17 @@
       <c r="H153" s="67"/>
       <c r="I153" s="65"/>
       <c r="J153" s="67"/>
-      <c r="K153" s="77"/>
+      <c r="K153" s="75"/>
       <c r="L153" s="65"/>
       <c r="M153" s="65"/>
-      <c r="N153" s="65"/>
+      <c r="N153" s="101"/>
       <c r="O153" s="65"/>
-      <c r="P153" s="67"/>
-      <c r="Q153" s="66"/>
-      <c r="V153" s="66"/>
-    </row>
-    <row r="154" spans="1:22">
+      <c r="P153" s="65"/>
+      <c r="Q153" s="67"/>
+      <c r="R153" s="66"/>
+      <c r="W153" s="66"/>
+    </row>
+    <row r="154" spans="1:23">
       <c r="A154" s="65"/>
       <c r="B154" s="65"/>
       <c r="C154" s="65"/>
@@ -5775,16 +6122,17 @@
       <c r="H154" s="67"/>
       <c r="I154" s="65"/>
       <c r="J154" s="67"/>
-      <c r="K154" s="77"/>
+      <c r="K154" s="75"/>
       <c r="L154" s="65"/>
       <c r="M154" s="65"/>
-      <c r="N154" s="65"/>
+      <c r="N154" s="101"/>
       <c r="O154" s="65"/>
-      <c r="P154" s="67"/>
-      <c r="Q154" s="66"/>
-      <c r="V154" s="66"/>
-    </row>
-    <row r="155" spans="1:22">
+      <c r="P154" s="65"/>
+      <c r="Q154" s="67"/>
+      <c r="R154" s="66"/>
+      <c r="W154" s="66"/>
+    </row>
+    <row r="155" spans="1:23">
       <c r="A155" s="65"/>
       <c r="B155" s="65"/>
       <c r="C155" s="65"/>
@@ -5795,16 +6143,17 @@
       <c r="H155" s="67"/>
       <c r="I155" s="65"/>
       <c r="J155" s="67"/>
-      <c r="K155" s="77"/>
+      <c r="K155" s="75"/>
       <c r="L155" s="65"/>
       <c r="M155" s="65"/>
-      <c r="N155" s="65"/>
+      <c r="N155" s="101"/>
       <c r="O155" s="65"/>
-      <c r="P155" s="67"/>
-      <c r="Q155" s="66"/>
-      <c r="V155" s="66"/>
-    </row>
-    <row r="156" spans="1:22">
+      <c r="P155" s="65"/>
+      <c r="Q155" s="67"/>
+      <c r="R155" s="66"/>
+      <c r="W155" s="66"/>
+    </row>
+    <row r="156" spans="1:23">
       <c r="A156" s="65"/>
       <c r="B156" s="65"/>
       <c r="C156" s="65"/>
@@ -5815,16 +6164,17 @@
       <c r="H156" s="67"/>
       <c r="I156" s="65"/>
       <c r="J156" s="67"/>
-      <c r="K156" s="77"/>
+      <c r="K156" s="75"/>
       <c r="L156" s="65"/>
       <c r="M156" s="65"/>
-      <c r="N156" s="65"/>
+      <c r="N156" s="101"/>
       <c r="O156" s="65"/>
-      <c r="P156" s="67"/>
-      <c r="Q156" s="66"/>
-      <c r="V156" s="66"/>
-    </row>
-    <row r="157" spans="1:22">
+      <c r="P156" s="65"/>
+      <c r="Q156" s="67"/>
+      <c r="R156" s="66"/>
+      <c r="W156" s="66"/>
+    </row>
+    <row r="157" spans="1:23">
       <c r="A157" s="65"/>
       <c r="B157" s="65"/>
       <c r="C157" s="65"/>
@@ -5835,16 +6185,17 @@
       <c r="H157" s="67"/>
       <c r="I157" s="65"/>
       <c r="J157" s="67"/>
-      <c r="K157" s="77"/>
+      <c r="K157" s="75"/>
       <c r="L157" s="65"/>
       <c r="M157" s="65"/>
-      <c r="N157" s="65"/>
+      <c r="N157" s="101"/>
       <c r="O157" s="65"/>
-      <c r="P157" s="67"/>
-      <c r="Q157" s="66"/>
-      <c r="V157" s="66"/>
-    </row>
-    <row r="158" spans="1:22">
+      <c r="P157" s="65"/>
+      <c r="Q157" s="67"/>
+      <c r="R157" s="66"/>
+      <c r="W157" s="66"/>
+    </row>
+    <row r="158" spans="1:23">
       <c r="A158" s="65"/>
       <c r="B158" s="65"/>
       <c r="C158" s="65"/>
@@ -5855,16 +6206,17 @@
       <c r="H158" s="67"/>
       <c r="I158" s="65"/>
       <c r="J158" s="67"/>
-      <c r="K158" s="77"/>
+      <c r="K158" s="75"/>
       <c r="L158" s="65"/>
       <c r="M158" s="65"/>
-      <c r="N158" s="65"/>
+      <c r="N158" s="101"/>
       <c r="O158" s="65"/>
-      <c r="P158" s="67"/>
-      <c r="Q158" s="66"/>
-      <c r="V158" s="66"/>
-    </row>
-    <row r="159" spans="1:22">
+      <c r="P158" s="65"/>
+      <c r="Q158" s="67"/>
+      <c r="R158" s="66"/>
+      <c r="W158" s="66"/>
+    </row>
+    <row r="159" spans="1:23">
       <c r="A159" s="65"/>
       <c r="B159" s="65"/>
       <c r="C159" s="65"/>
@@ -5875,16 +6227,17 @@
       <c r="H159" s="67"/>
       <c r="I159" s="65"/>
       <c r="J159" s="67"/>
-      <c r="K159" s="77"/>
+      <c r="K159" s="75"/>
       <c r="L159" s="65"/>
       <c r="M159" s="65"/>
-      <c r="N159" s="65"/>
+      <c r="N159" s="101"/>
       <c r="O159" s="65"/>
-      <c r="P159" s="67"/>
-      <c r="Q159" s="66"/>
-      <c r="V159" s="66"/>
-    </row>
-    <row r="160" spans="1:22">
+      <c r="P159" s="65"/>
+      <c r="Q159" s="67"/>
+      <c r="R159" s="66"/>
+      <c r="W159" s="66"/>
+    </row>
+    <row r="160" spans="1:23">
       <c r="A160" s="65"/>
       <c r="B160" s="65"/>
       <c r="C160" s="65"/>
@@ -5895,16 +6248,17 @@
       <c r="H160" s="67"/>
       <c r="I160" s="65"/>
       <c r="J160" s="67"/>
-      <c r="K160" s="77"/>
+      <c r="K160" s="75"/>
       <c r="L160" s="65"/>
       <c r="M160" s="65"/>
-      <c r="N160" s="65"/>
+      <c r="N160" s="101"/>
       <c r="O160" s="65"/>
-      <c r="P160" s="67"/>
-      <c r="Q160" s="66"/>
-      <c r="V160" s="66"/>
-    </row>
-    <row r="161" spans="1:22">
+      <c r="P160" s="65"/>
+      <c r="Q160" s="67"/>
+      <c r="R160" s="66"/>
+      <c r="W160" s="66"/>
+    </row>
+    <row r="161" spans="1:23">
       <c r="A161" s="65"/>
       <c r="B161" s="65"/>
       <c r="C161" s="65"/>
@@ -5915,16 +6269,17 @@
       <c r="H161" s="67"/>
       <c r="I161" s="65"/>
       <c r="J161" s="67"/>
-      <c r="K161" s="77"/>
+      <c r="K161" s="75"/>
       <c r="L161" s="65"/>
       <c r="M161" s="65"/>
-      <c r="N161" s="65"/>
+      <c r="N161" s="101"/>
       <c r="O161" s="65"/>
-      <c r="P161" s="67"/>
-      <c r="Q161" s="66"/>
-      <c r="V161" s="66"/>
-    </row>
-    <row r="162" spans="1:22">
+      <c r="P161" s="65"/>
+      <c r="Q161" s="67"/>
+      <c r="R161" s="66"/>
+      <c r="W161" s="66"/>
+    </row>
+    <row r="162" spans="1:23">
       <c r="A162" s="65"/>
       <c r="B162" s="65"/>
       <c r="C162" s="65"/>
@@ -5935,16 +6290,17 @@
       <c r="H162" s="67"/>
       <c r="I162" s="65"/>
       <c r="J162" s="67"/>
-      <c r="K162" s="77"/>
+      <c r="K162" s="75"/>
       <c r="L162" s="65"/>
       <c r="M162" s="65"/>
-      <c r="N162" s="65"/>
+      <c r="N162" s="101"/>
       <c r="O162" s="65"/>
-      <c r="P162" s="67"/>
-      <c r="Q162" s="66"/>
-      <c r="V162" s="66"/>
-    </row>
-    <row r="163" spans="1:22">
+      <c r="P162" s="65"/>
+      <c r="Q162" s="67"/>
+      <c r="R162" s="66"/>
+      <c r="W162" s="66"/>
+    </row>
+    <row r="163" spans="1:23">
       <c r="A163" s="65"/>
       <c r="B163" s="65"/>
       <c r="C163" s="65"/>
@@ -5955,18 +6311,34 @@
       <c r="H163" s="67"/>
       <c r="I163" s="65"/>
       <c r="J163" s="67"/>
-      <c r="K163" s="77"/>
+      <c r="K163" s="75"/>
       <c r="L163" s="65"/>
       <c r="M163" s="65"/>
-      <c r="N163" s="65"/>
+      <c r="N163" s="101"/>
       <c r="O163" s="65"/>
-      <c r="P163" s="67"/>
-      <c r="Q163" s="66"/>
-      <c r="V163" s="66"/>
+      <c r="P163" s="65"/>
+      <c r="Q163" s="67"/>
+      <c r="R163" s="66"/>
+      <c r="W163" s="66"/>
+    </row>
+    <row r="164" spans="1:23">
+      <c r="N164" s="101"/>
+    </row>
+    <row r="165" spans="1:23">
+      <c r="N165" s="101"/>
+    </row>
+    <row r="166" spans="1:23">
+      <c r="N166" s="101"/>
+    </row>
+    <row r="167" spans="1:23">
+      <c r="N167" s="101"/>
+    </row>
+    <row r="168" spans="1:23">
+      <c r="N168" s="101"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <dataValidations count="7">
+  <phoneticPr fontId="22" type="noConversion"/>
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
@@ -5979,32 +6351,35 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 U1:U2 U5:U6 U9:U13 U15:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V2 V5:V6 V9:V13 V15:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576 R20:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S20:S1048576 R1:R1048576">
       <formula1>"能,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N77">
+      <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="R4" r:id="rId1" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R5" r:id="rId2" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R6" r:id="rId3" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R14" r:id="rId4" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R7" r:id="rId5" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R9" r:id="rId6" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R11" r:id="rId7" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R13" r:id="rId8" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R8" r:id="rId9" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R10" r:id="rId10" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R12" r:id="rId11" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R2" r:id="rId12" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R3" r:id="rId13" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R15" r:id="rId14" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="R16:R18" r:id="rId15" tooltip="View this issue in JIRA" display="DV-2263"/>
+    <hyperlink ref="S4" r:id="rId1" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S5" r:id="rId2" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S6" r:id="rId3" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S14" r:id="rId4" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S7" r:id="rId5" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S9" r:id="rId6" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S11" r:id="rId7" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S13" r:id="rId8" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S8" r:id="rId9" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S10" r:id="rId10" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S12" r:id="rId11" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S2" r:id="rId12" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S3" r:id="rId13" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S15" r:id="rId14" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S16:S18" r:id="rId15" tooltip="View this issue in JIRA" display="DV-2263"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -6575,7 +6950,7 @@
       <c r="R26" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6601,19 +6976,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="22" t="s">
@@ -6651,8 +7026,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="24"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -6664,8 +7039,8 @@
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -6677,8 +7052,8 @@
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -6690,8 +7065,8 @@
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="99"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -6703,8 +7078,8 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -6716,8 +7091,8 @@
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -6729,8 +7104,8 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -6742,8 +7117,8 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -6775,7 +7150,7 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B10"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -6804,36 +7179,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="97"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -7075,7 +7450,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
@@ -7118,36 +7493,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="97"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -7389,7 +7764,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
@@ -7432,36 +7807,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="97"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -7703,7 +8078,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
@@ -7748,36 +8123,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="97"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -8019,7 +8394,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
@@ -8264,7 +8639,7 @@
       <c r="H19" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>

--- a/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_极光组.xlsx
+++ b/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_极光组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="126">
   <si>
     <t>No</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>New Features</t>
-  </si>
-  <si>
-    <t>PartnerPc、PartnerApp、RenterApp</t>
   </si>
   <si>
     <t>是</t>
@@ -423,6 +420,17 @@
   </si>
   <si>
     <t>纪维玉</t>
+  </si>
+  <si>
+    <t>蘑菇月付官网展示</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartnerPc、PartnerApp、RenterApp</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYF-399</t>
   </si>
 </sst>
 </file>
@@ -894,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1168,6 +1176,15 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1195,14 +1212,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1652,7 +1663,7 @@
   <dimension ref="A1:X168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1670,7 +1681,7 @@
     <col min="11" max="11" width="10.25" style="49" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="48" customWidth="1"/>
     <col min="13" max="13" width="15.875" style="48" customWidth="1"/>
-    <col min="14" max="14" width="11.875" style="102" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="93" customWidth="1"/>
     <col min="15" max="15" width="11.375" style="48" customWidth="1"/>
     <col min="16" max="16" width="10" style="49" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="49" customWidth="1"/>
@@ -1724,8 +1735,8 @@
       <c r="M1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="100" t="s">
-        <v>117</v>
+      <c r="N1" s="91" t="s">
+        <v>116</v>
       </c>
       <c r="O1" s="52" t="s">
         <v>13</v>
@@ -1772,44 +1783,44 @@
         <v>25</v>
       </c>
       <c r="F2" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="56" t="s">
-        <v>27</v>
-      </c>
       <c r="H2" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I2" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="57">
         <v>42375</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="N2" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="69" t="s">
         <v>119</v>
-      </c>
-      <c r="P2" s="69" t="s">
-        <v>120</v>
       </c>
       <c r="Q2" s="74">
         <v>42781</v>
       </c>
       <c r="R2" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S2" s="78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T2" s="79"/>
       <c r="U2" s="65"/>
@@ -1828,50 +1839,50 @@
         <v>23</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I3" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="57">
         <v>42375</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O3" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q3" s="74">
         <v>42781</v>
       </c>
       <c r="R3" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S3" s="78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T3" s="82"/>
       <c r="U3" s="65"/>
@@ -1889,50 +1900,50 @@
         <v>23</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I4" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="57">
         <v>42375</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="N4" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O4" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P4" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="74">
         <v>42781</v>
       </c>
       <c r="R4" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S4" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" s="82"/>
       <c r="U4" s="65"/>
@@ -1950,50 +1961,50 @@
         <v>23</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="57">
         <v>42375</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="N5" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P5" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="74">
         <v>42781</v>
       </c>
       <c r="R5" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S5" s="78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T5" s="82"/>
       <c r="U5" s="65"/>
@@ -2012,50 +2023,50 @@
         <v>23</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I6" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="57">
         <v>42375</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="N6" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O6" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P6" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="74">
         <v>42781</v>
       </c>
       <c r="R6" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S6" s="78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T6" s="82"/>
       <c r="U6" s="65"/>
@@ -2074,50 +2085,50 @@
         <v>23</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="57">
         <v>42375</v>
       </c>
       <c r="K7" s="71"/>
       <c r="L7" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="N7" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O7" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P7" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="74">
         <v>42781</v>
       </c>
       <c r="R7" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S7" s="78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T7" s="82"/>
       <c r="U7" s="65"/>
@@ -2135,50 +2146,50 @@
         <v>23</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="57">
         <v>42375</v>
       </c>
       <c r="K8" s="71"/>
       <c r="L8" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="N8" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O8" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P8" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="74">
         <v>42781</v>
       </c>
       <c r="R8" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S8" s="78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T8" s="82"/>
       <c r="U8" s="65"/>
@@ -2196,50 +2207,50 @@
         <v>23</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="57">
         <v>42375</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="N9" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P9" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="74">
         <v>42781</v>
       </c>
       <c r="R9" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S9" s="78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T9" s="84"/>
       <c r="U9" s="85"/>
@@ -2258,50 +2269,50 @@
         <v>23</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I10" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="57">
         <v>42375</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N10" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P10" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="74">
         <v>42781</v>
       </c>
       <c r="R10" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S10" s="78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T10" s="82"/>
       <c r="U10" s="65"/>
@@ -2320,50 +2331,50 @@
         <v>23</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I11" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="57">
         <v>42375</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P11" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="74">
         <v>42781</v>
       </c>
       <c r="R11" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S11" s="78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T11" s="82"/>
       <c r="U11" s="65"/>
@@ -2382,50 +2393,50 @@
         <v>23</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I12" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="57">
         <v>42375</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N12" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P12" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q12" s="74">
         <v>42781</v>
       </c>
       <c r="R12" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S12" s="78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T12" s="82"/>
       <c r="U12" s="65"/>
@@ -2444,50 +2455,50 @@
         <v>23</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I13" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="57">
         <v>42375</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P13" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="74">
         <v>42781</v>
       </c>
       <c r="R13" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S13" s="78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T13" s="82"/>
       <c r="U13" s="65"/>
@@ -2506,50 +2517,50 @@
         <v>23</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I14" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="57">
         <v>42375</v>
       </c>
       <c r="K14" s="71"/>
       <c r="L14" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O14" s="72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P14" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="74">
         <v>42781</v>
       </c>
       <c r="R14" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S14" s="78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T14" s="82"/>
       <c r="U14" s="65"/>
@@ -2567,50 +2578,50 @@
         <v>23</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I15" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" s="57">
         <v>42375</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N15" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O15" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P15" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="74">
         <v>42781</v>
       </c>
       <c r="R15" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S15" s="78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T15" s="65"/>
       <c r="U15" s="65"/>
@@ -2628,50 +2639,50 @@
         <v>23</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I16" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" s="57">
         <v>42375</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="N16" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O16" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P16" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="74">
         <v>42781</v>
       </c>
       <c r="R16" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S16" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T16" s="65"/>
       <c r="U16" s="65"/>
@@ -2689,50 +2700,50 @@
         <v>23</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" s="57">
         <v>42375</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O17" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P17" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="74">
         <v>42781</v>
       </c>
       <c r="R17" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S17" s="78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T17" s="86"/>
       <c r="U17" s="86"/>
@@ -2750,50 +2761,50 @@
         <v>23</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I18" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J18" s="57">
         <v>42375</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="N18" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O18" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P18" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="74">
         <v>42781</v>
       </c>
       <c r="R18" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S18" s="78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T18" s="88"/>
       <c r="U18" s="88"/>
@@ -2811,50 +2822,50 @@
         <v>23</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="57">
-        <v>42375</v>
+        <v>42741</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J19" s="57">
         <v>42375</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N19" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O19" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P19" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="74">
         <v>42781</v>
       </c>
       <c r="R19" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S19" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T19" s="88"/>
       <c r="U19" s="88"/>
@@ -2862,25 +2873,61 @@
       <c r="W19" s="87"/>
     </row>
     <row r="20" spans="1:23" ht="16.5">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="64"/>
+      <c r="A20" s="54">
+        <v>19</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="57">
+        <v>42741</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="57">
+        <v>42375</v>
+      </c>
       <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
+      <c r="L20" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="74">
+        <v>42781</v>
+      </c>
+      <c r="R20" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="S20" s="103" t="s">
+        <v>125</v>
+      </c>
       <c r="T20" s="88"/>
       <c r="U20" s="88"/>
       <c r="V20" s="88"/>
@@ -4325,7 +4372,7 @@
       <c r="K78" s="75"/>
       <c r="L78" s="65"/>
       <c r="M78" s="65"/>
-      <c r="N78" s="101"/>
+      <c r="N78" s="92"/>
       <c r="O78" s="65"/>
       <c r="P78" s="65"/>
       <c r="Q78" s="67"/>
@@ -4350,7 +4397,7 @@
       <c r="K79" s="75"/>
       <c r="L79" s="65"/>
       <c r="M79" s="65"/>
-      <c r="N79" s="101"/>
+      <c r="N79" s="92"/>
       <c r="O79" s="65"/>
       <c r="P79" s="65"/>
       <c r="Q79" s="67"/>
@@ -4375,7 +4422,7 @@
       <c r="K80" s="75"/>
       <c r="L80" s="65"/>
       <c r="M80" s="65"/>
-      <c r="N80" s="101"/>
+      <c r="N80" s="92"/>
       <c r="O80" s="65"/>
       <c r="P80" s="65"/>
       <c r="Q80" s="67"/>
@@ -4400,7 +4447,7 @@
       <c r="K81" s="75"/>
       <c r="L81" s="65"/>
       <c r="M81" s="65"/>
-      <c r="N81" s="101"/>
+      <c r="N81" s="92"/>
       <c r="O81" s="65"/>
       <c r="P81" s="65"/>
       <c r="Q81" s="67"/>
@@ -4425,7 +4472,7 @@
       <c r="K82" s="75"/>
       <c r="L82" s="65"/>
       <c r="M82" s="65"/>
-      <c r="N82" s="101"/>
+      <c r="N82" s="92"/>
       <c r="O82" s="65"/>
       <c r="P82" s="65"/>
       <c r="Q82" s="67"/>
@@ -4450,7 +4497,7 @@
       <c r="K83" s="75"/>
       <c r="L83" s="65"/>
       <c r="M83" s="65"/>
-      <c r="N83" s="101"/>
+      <c r="N83" s="92"/>
       <c r="O83" s="65"/>
       <c r="P83" s="65"/>
       <c r="Q83" s="67"/>
@@ -4475,7 +4522,7 @@
       <c r="K84" s="75"/>
       <c r="L84" s="65"/>
       <c r="M84" s="65"/>
-      <c r="N84" s="101"/>
+      <c r="N84" s="92"/>
       <c r="O84" s="65"/>
       <c r="P84" s="65"/>
       <c r="Q84" s="67"/>
@@ -4500,7 +4547,7 @@
       <c r="K85" s="75"/>
       <c r="L85" s="65"/>
       <c r="M85" s="65"/>
-      <c r="N85" s="101"/>
+      <c r="N85" s="92"/>
       <c r="O85" s="65"/>
       <c r="P85" s="65"/>
       <c r="Q85" s="67"/>
@@ -4525,7 +4572,7 @@
       <c r="K86" s="75"/>
       <c r="L86" s="65"/>
       <c r="M86" s="65"/>
-      <c r="N86" s="101"/>
+      <c r="N86" s="92"/>
       <c r="O86" s="65"/>
       <c r="P86" s="65"/>
       <c r="Q86" s="67"/>
@@ -4550,7 +4597,7 @@
       <c r="K87" s="75"/>
       <c r="L87" s="65"/>
       <c r="M87" s="65"/>
-      <c r="N87" s="101"/>
+      <c r="N87" s="92"/>
       <c r="O87" s="65"/>
       <c r="P87" s="65"/>
       <c r="Q87" s="67"/>
@@ -4575,7 +4622,7 @@
       <c r="K88" s="75"/>
       <c r="L88" s="65"/>
       <c r="M88" s="65"/>
-      <c r="N88" s="101"/>
+      <c r="N88" s="92"/>
       <c r="O88" s="65"/>
       <c r="P88" s="65"/>
       <c r="Q88" s="67"/>
@@ -4600,7 +4647,7 @@
       <c r="K89" s="75"/>
       <c r="L89" s="65"/>
       <c r="M89" s="65"/>
-      <c r="N89" s="101"/>
+      <c r="N89" s="92"/>
       <c r="O89" s="65"/>
       <c r="P89" s="65"/>
       <c r="Q89" s="67"/>
@@ -4625,7 +4672,7 @@
       <c r="K90" s="75"/>
       <c r="L90" s="65"/>
       <c r="M90" s="65"/>
-      <c r="N90" s="101"/>
+      <c r="N90" s="92"/>
       <c r="O90" s="65"/>
       <c r="P90" s="65"/>
       <c r="Q90" s="67"/>
@@ -4650,7 +4697,7 @@
       <c r="K91" s="75"/>
       <c r="L91" s="65"/>
       <c r="M91" s="65"/>
-      <c r="N91" s="101"/>
+      <c r="N91" s="92"/>
       <c r="O91" s="65"/>
       <c r="P91" s="65"/>
       <c r="Q91" s="67"/>
@@ -4675,7 +4722,7 @@
       <c r="K92" s="75"/>
       <c r="L92" s="65"/>
       <c r="M92" s="65"/>
-      <c r="N92" s="101"/>
+      <c r="N92" s="92"/>
       <c r="O92" s="65"/>
       <c r="P92" s="65"/>
       <c r="Q92" s="67"/>
@@ -4700,7 +4747,7 @@
       <c r="K93" s="75"/>
       <c r="L93" s="65"/>
       <c r="M93" s="65"/>
-      <c r="N93" s="101"/>
+      <c r="N93" s="92"/>
       <c r="O93" s="65"/>
       <c r="P93" s="65"/>
       <c r="Q93" s="67"/>
@@ -4725,7 +4772,7 @@
       <c r="K94" s="75"/>
       <c r="L94" s="65"/>
       <c r="M94" s="65"/>
-      <c r="N94" s="101"/>
+      <c r="N94" s="92"/>
       <c r="O94" s="65"/>
       <c r="P94" s="65"/>
       <c r="Q94" s="67"/>
@@ -4750,7 +4797,7 @@
       <c r="K95" s="75"/>
       <c r="L95" s="65"/>
       <c r="M95" s="65"/>
-      <c r="N95" s="101"/>
+      <c r="N95" s="92"/>
       <c r="O95" s="65"/>
       <c r="P95" s="65"/>
       <c r="Q95" s="67"/>
@@ -4775,7 +4822,7 @@
       <c r="K96" s="75"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
-      <c r="N96" s="101"/>
+      <c r="N96" s="92"/>
       <c r="O96" s="65"/>
       <c r="P96" s="65"/>
       <c r="Q96" s="67"/>
@@ -4800,7 +4847,7 @@
       <c r="K97" s="75"/>
       <c r="L97" s="65"/>
       <c r="M97" s="65"/>
-      <c r="N97" s="101"/>
+      <c r="N97" s="92"/>
       <c r="O97" s="65"/>
       <c r="P97" s="65"/>
       <c r="Q97" s="67"/>
@@ -4825,7 +4872,7 @@
       <c r="K98" s="75"/>
       <c r="L98" s="65"/>
       <c r="M98" s="65"/>
-      <c r="N98" s="101"/>
+      <c r="N98" s="92"/>
       <c r="O98" s="65"/>
       <c r="P98" s="65"/>
       <c r="Q98" s="67"/>
@@ -4850,7 +4897,7 @@
       <c r="K99" s="75"/>
       <c r="L99" s="65"/>
       <c r="M99" s="65"/>
-      <c r="N99" s="101"/>
+      <c r="N99" s="92"/>
       <c r="O99" s="65"/>
       <c r="P99" s="65"/>
       <c r="Q99" s="67"/>
@@ -4875,7 +4922,7 @@
       <c r="K100" s="75"/>
       <c r="L100" s="65"/>
       <c r="M100" s="65"/>
-      <c r="N100" s="101"/>
+      <c r="N100" s="92"/>
       <c r="O100" s="65"/>
       <c r="P100" s="65"/>
       <c r="Q100" s="67"/>
@@ -4900,7 +4947,7 @@
       <c r="K101" s="75"/>
       <c r="L101" s="65"/>
       <c r="M101" s="65"/>
-      <c r="N101" s="101"/>
+      <c r="N101" s="92"/>
       <c r="O101" s="65"/>
       <c r="P101" s="65"/>
       <c r="Q101" s="67"/>
@@ -4925,7 +4972,7 @@
       <c r="K102" s="75"/>
       <c r="L102" s="65"/>
       <c r="M102" s="65"/>
-      <c r="N102" s="101"/>
+      <c r="N102" s="92"/>
       <c r="O102" s="65"/>
       <c r="P102" s="65"/>
       <c r="Q102" s="67"/>
@@ -4950,7 +4997,7 @@
       <c r="K103" s="75"/>
       <c r="L103" s="65"/>
       <c r="M103" s="65"/>
-      <c r="N103" s="101"/>
+      <c r="N103" s="92"/>
       <c r="O103" s="65"/>
       <c r="P103" s="65"/>
       <c r="Q103" s="67"/>
@@ -4975,7 +5022,7 @@
       <c r="K104" s="75"/>
       <c r="L104" s="65"/>
       <c r="M104" s="65"/>
-      <c r="N104" s="101"/>
+      <c r="N104" s="92"/>
       <c r="O104" s="65"/>
       <c r="P104" s="65"/>
       <c r="Q104" s="67"/>
@@ -5000,7 +5047,7 @@
       <c r="K105" s="75"/>
       <c r="L105" s="65"/>
       <c r="M105" s="65"/>
-      <c r="N105" s="101"/>
+      <c r="N105" s="92"/>
       <c r="O105" s="65"/>
       <c r="P105" s="65"/>
       <c r="Q105" s="67"/>
@@ -5025,7 +5072,7 @@
       <c r="K106" s="75"/>
       <c r="L106" s="65"/>
       <c r="M106" s="65"/>
-      <c r="N106" s="101"/>
+      <c r="N106" s="92"/>
       <c r="O106" s="65"/>
       <c r="P106" s="65"/>
       <c r="Q106" s="67"/>
@@ -5050,7 +5097,7 @@
       <c r="K107" s="75"/>
       <c r="L107" s="65"/>
       <c r="M107" s="65"/>
-      <c r="N107" s="101"/>
+      <c r="N107" s="92"/>
       <c r="O107" s="65"/>
       <c r="P107" s="65"/>
       <c r="Q107" s="67"/>
@@ -5075,7 +5122,7 @@
       <c r="K108" s="75"/>
       <c r="L108" s="65"/>
       <c r="M108" s="65"/>
-      <c r="N108" s="101"/>
+      <c r="N108" s="92"/>
       <c r="O108" s="65"/>
       <c r="P108" s="65"/>
       <c r="Q108" s="67"/>
@@ -5100,7 +5147,7 @@
       <c r="K109" s="75"/>
       <c r="L109" s="65"/>
       <c r="M109" s="65"/>
-      <c r="N109" s="101"/>
+      <c r="N109" s="92"/>
       <c r="O109" s="65"/>
       <c r="P109" s="65"/>
       <c r="Q109" s="67"/>
@@ -5125,7 +5172,7 @@
       <c r="K110" s="75"/>
       <c r="L110" s="65"/>
       <c r="M110" s="65"/>
-      <c r="N110" s="101"/>
+      <c r="N110" s="92"/>
       <c r="O110" s="65"/>
       <c r="P110" s="65"/>
       <c r="Q110" s="67"/>
@@ -5150,7 +5197,7 @@
       <c r="K111" s="75"/>
       <c r="L111" s="65"/>
       <c r="M111" s="65"/>
-      <c r="N111" s="101"/>
+      <c r="N111" s="92"/>
       <c r="O111" s="65"/>
       <c r="P111" s="65"/>
       <c r="Q111" s="67"/>
@@ -5175,7 +5222,7 @@
       <c r="K112" s="75"/>
       <c r="L112" s="65"/>
       <c r="M112" s="65"/>
-      <c r="N112" s="101"/>
+      <c r="N112" s="92"/>
       <c r="O112" s="65"/>
       <c r="P112" s="65"/>
       <c r="Q112" s="67"/>
@@ -5200,7 +5247,7 @@
       <c r="K113" s="75"/>
       <c r="L113" s="65"/>
       <c r="M113" s="65"/>
-      <c r="N113" s="101"/>
+      <c r="N113" s="92"/>
       <c r="O113" s="65"/>
       <c r="P113" s="65"/>
       <c r="Q113" s="67"/>
@@ -5225,7 +5272,7 @@
       <c r="K114" s="75"/>
       <c r="L114" s="65"/>
       <c r="M114" s="65"/>
-      <c r="N114" s="101"/>
+      <c r="N114" s="92"/>
       <c r="O114" s="65"/>
       <c r="P114" s="65"/>
       <c r="Q114" s="67"/>
@@ -5250,7 +5297,7 @@
       <c r="K115" s="75"/>
       <c r="L115" s="65"/>
       <c r="M115" s="65"/>
-      <c r="N115" s="101"/>
+      <c r="N115" s="92"/>
       <c r="O115" s="65"/>
       <c r="P115" s="65"/>
       <c r="Q115" s="67"/>
@@ -5275,7 +5322,7 @@
       <c r="K116" s="75"/>
       <c r="L116" s="65"/>
       <c r="M116" s="65"/>
-      <c r="N116" s="101"/>
+      <c r="N116" s="92"/>
       <c r="O116" s="65"/>
       <c r="P116" s="65"/>
       <c r="Q116" s="67"/>
@@ -5300,7 +5347,7 @@
       <c r="K117" s="75"/>
       <c r="L117" s="65"/>
       <c r="M117" s="65"/>
-      <c r="N117" s="101"/>
+      <c r="N117" s="92"/>
       <c r="O117" s="65"/>
       <c r="P117" s="65"/>
       <c r="Q117" s="67"/>
@@ -5325,7 +5372,7 @@
       <c r="K118" s="75"/>
       <c r="L118" s="65"/>
       <c r="M118" s="65"/>
-      <c r="N118" s="101"/>
+      <c r="N118" s="92"/>
       <c r="O118" s="65"/>
       <c r="P118" s="65"/>
       <c r="Q118" s="67"/>
@@ -5350,7 +5397,7 @@
       <c r="K119" s="75"/>
       <c r="L119" s="65"/>
       <c r="M119" s="65"/>
-      <c r="N119" s="101"/>
+      <c r="N119" s="92"/>
       <c r="O119" s="65"/>
       <c r="P119" s="65"/>
       <c r="Q119" s="67"/>
@@ -5375,7 +5422,7 @@
       <c r="K120" s="75"/>
       <c r="L120" s="65"/>
       <c r="M120" s="65"/>
-      <c r="N120" s="101"/>
+      <c r="N120" s="92"/>
       <c r="O120" s="65"/>
       <c r="P120" s="65"/>
       <c r="Q120" s="67"/>
@@ -5400,7 +5447,7 @@
       <c r="K121" s="75"/>
       <c r="L121" s="65"/>
       <c r="M121" s="65"/>
-      <c r="N121" s="101"/>
+      <c r="N121" s="92"/>
       <c r="O121" s="65"/>
       <c r="P121" s="65"/>
       <c r="Q121" s="67"/>
@@ -5425,7 +5472,7 @@
       <c r="K122" s="75"/>
       <c r="L122" s="65"/>
       <c r="M122" s="65"/>
-      <c r="N122" s="101"/>
+      <c r="N122" s="92"/>
       <c r="O122" s="65"/>
       <c r="P122" s="65"/>
       <c r="Q122" s="67"/>
@@ -5450,7 +5497,7 @@
       <c r="K123" s="75"/>
       <c r="L123" s="65"/>
       <c r="M123" s="65"/>
-      <c r="N123" s="101"/>
+      <c r="N123" s="92"/>
       <c r="O123" s="65"/>
       <c r="P123" s="65"/>
       <c r="Q123" s="67"/>
@@ -5475,7 +5522,7 @@
       <c r="K124" s="75"/>
       <c r="L124" s="65"/>
       <c r="M124" s="65"/>
-      <c r="N124" s="101"/>
+      <c r="N124" s="92"/>
       <c r="O124" s="65"/>
       <c r="P124" s="65"/>
       <c r="Q124" s="67"/>
@@ -5500,7 +5547,7 @@
       <c r="K125" s="75"/>
       <c r="L125" s="65"/>
       <c r="M125" s="65"/>
-      <c r="N125" s="101"/>
+      <c r="N125" s="92"/>
       <c r="O125" s="65"/>
       <c r="P125" s="65"/>
       <c r="Q125" s="67"/>
@@ -5525,7 +5572,7 @@
       <c r="K126" s="75"/>
       <c r="L126" s="65"/>
       <c r="M126" s="65"/>
-      <c r="N126" s="101"/>
+      <c r="N126" s="92"/>
       <c r="O126" s="65"/>
       <c r="P126" s="65"/>
       <c r="Q126" s="67"/>
@@ -5550,7 +5597,7 @@
       <c r="K127" s="75"/>
       <c r="L127" s="65"/>
       <c r="M127" s="65"/>
-      <c r="N127" s="101"/>
+      <c r="N127" s="92"/>
       <c r="O127" s="65"/>
       <c r="P127" s="65"/>
       <c r="Q127" s="67"/>
@@ -5575,7 +5622,7 @@
       <c r="K128" s="75"/>
       <c r="L128" s="65"/>
       <c r="M128" s="65"/>
-      <c r="N128" s="101"/>
+      <c r="N128" s="92"/>
       <c r="O128" s="65"/>
       <c r="P128" s="65"/>
       <c r="Q128" s="67"/>
@@ -5600,7 +5647,7 @@
       <c r="K129" s="75"/>
       <c r="L129" s="65"/>
       <c r="M129" s="65"/>
-      <c r="N129" s="101"/>
+      <c r="N129" s="92"/>
       <c r="O129" s="65"/>
       <c r="P129" s="65"/>
       <c r="Q129" s="67"/>
@@ -5621,7 +5668,7 @@
       <c r="K130" s="75"/>
       <c r="L130" s="65"/>
       <c r="M130" s="65"/>
-      <c r="N130" s="101"/>
+      <c r="N130" s="92"/>
       <c r="O130" s="65"/>
       <c r="P130" s="65"/>
       <c r="Q130" s="67"/>
@@ -5642,7 +5689,7 @@
       <c r="K131" s="75"/>
       <c r="L131" s="65"/>
       <c r="M131" s="65"/>
-      <c r="N131" s="101"/>
+      <c r="N131" s="92"/>
       <c r="O131" s="65"/>
       <c r="P131" s="65"/>
       <c r="Q131" s="67"/>
@@ -5663,7 +5710,7 @@
       <c r="K132" s="75"/>
       <c r="L132" s="65"/>
       <c r="M132" s="65"/>
-      <c r="N132" s="101"/>
+      <c r="N132" s="92"/>
       <c r="O132" s="65"/>
       <c r="P132" s="65"/>
       <c r="Q132" s="67"/>
@@ -5684,7 +5731,7 @@
       <c r="K133" s="75"/>
       <c r="L133" s="65"/>
       <c r="M133" s="65"/>
-      <c r="N133" s="101"/>
+      <c r="N133" s="92"/>
       <c r="O133" s="65"/>
       <c r="P133" s="65"/>
       <c r="Q133" s="67"/>
@@ -5705,7 +5752,7 @@
       <c r="K134" s="75"/>
       <c r="L134" s="65"/>
       <c r="M134" s="65"/>
-      <c r="N134" s="101"/>
+      <c r="N134" s="92"/>
       <c r="O134" s="65"/>
       <c r="P134" s="65"/>
       <c r="Q134" s="67"/>
@@ -5726,7 +5773,7 @@
       <c r="K135" s="75"/>
       <c r="L135" s="65"/>
       <c r="M135" s="65"/>
-      <c r="N135" s="101"/>
+      <c r="N135" s="92"/>
       <c r="O135" s="65"/>
       <c r="P135" s="65"/>
       <c r="Q135" s="67"/>
@@ -5747,7 +5794,7 @@
       <c r="K136" s="75"/>
       <c r="L136" s="65"/>
       <c r="M136" s="65"/>
-      <c r="N136" s="101"/>
+      <c r="N136" s="92"/>
       <c r="O136" s="65"/>
       <c r="P136" s="65"/>
       <c r="Q136" s="67"/>
@@ -5768,7 +5815,7 @@
       <c r="K137" s="75"/>
       <c r="L137" s="65"/>
       <c r="M137" s="65"/>
-      <c r="N137" s="101"/>
+      <c r="N137" s="92"/>
       <c r="O137" s="65"/>
       <c r="P137" s="65"/>
       <c r="Q137" s="67"/>
@@ -5789,7 +5836,7 @@
       <c r="K138" s="75"/>
       <c r="L138" s="65"/>
       <c r="M138" s="65"/>
-      <c r="N138" s="101"/>
+      <c r="N138" s="92"/>
       <c r="O138" s="65"/>
       <c r="P138" s="65"/>
       <c r="Q138" s="67"/>
@@ -5810,7 +5857,7 @@
       <c r="K139" s="75"/>
       <c r="L139" s="65"/>
       <c r="M139" s="65"/>
-      <c r="N139" s="101"/>
+      <c r="N139" s="92"/>
       <c r="O139" s="65"/>
       <c r="P139" s="65"/>
       <c r="Q139" s="67"/>
@@ -5831,7 +5878,7 @@
       <c r="K140" s="75"/>
       <c r="L140" s="65"/>
       <c r="M140" s="65"/>
-      <c r="N140" s="101"/>
+      <c r="N140" s="92"/>
       <c r="O140" s="65"/>
       <c r="P140" s="65"/>
       <c r="Q140" s="67"/>
@@ -5852,7 +5899,7 @@
       <c r="K141" s="75"/>
       <c r="L141" s="65"/>
       <c r="M141" s="65"/>
-      <c r="N141" s="101"/>
+      <c r="N141" s="92"/>
       <c r="O141" s="65"/>
       <c r="P141" s="65"/>
       <c r="Q141" s="67"/>
@@ -5873,7 +5920,7 @@
       <c r="K142" s="75"/>
       <c r="L142" s="65"/>
       <c r="M142" s="65"/>
-      <c r="N142" s="101"/>
+      <c r="N142" s="92"/>
       <c r="O142" s="65"/>
       <c r="P142" s="65"/>
       <c r="Q142" s="67"/>
@@ -5894,7 +5941,7 @@
       <c r="K143" s="75"/>
       <c r="L143" s="65"/>
       <c r="M143" s="65"/>
-      <c r="N143" s="101"/>
+      <c r="N143" s="92"/>
       <c r="O143" s="65"/>
       <c r="P143" s="65"/>
       <c r="Q143" s="67"/>
@@ -5915,7 +5962,7 @@
       <c r="K144" s="75"/>
       <c r="L144" s="65"/>
       <c r="M144" s="65"/>
-      <c r="N144" s="101"/>
+      <c r="N144" s="92"/>
       <c r="O144" s="65"/>
       <c r="P144" s="65"/>
       <c r="Q144" s="67"/>
@@ -5936,7 +5983,7 @@
       <c r="K145" s="75"/>
       <c r="L145" s="65"/>
       <c r="M145" s="65"/>
-      <c r="N145" s="101"/>
+      <c r="N145" s="92"/>
       <c r="O145" s="65"/>
       <c r="P145" s="65"/>
       <c r="Q145" s="67"/>
@@ -5957,7 +6004,7 @@
       <c r="K146" s="75"/>
       <c r="L146" s="65"/>
       <c r="M146" s="65"/>
-      <c r="N146" s="101"/>
+      <c r="N146" s="92"/>
       <c r="O146" s="65"/>
       <c r="P146" s="65"/>
       <c r="Q146" s="67"/>
@@ -5978,7 +6025,7 @@
       <c r="K147" s="75"/>
       <c r="L147" s="65"/>
       <c r="M147" s="65"/>
-      <c r="N147" s="101"/>
+      <c r="N147" s="92"/>
       <c r="O147" s="65"/>
       <c r="P147" s="65"/>
       <c r="Q147" s="67"/>
@@ -5999,7 +6046,7 @@
       <c r="K148" s="75"/>
       <c r="L148" s="65"/>
       <c r="M148" s="65"/>
-      <c r="N148" s="101"/>
+      <c r="N148" s="92"/>
       <c r="O148" s="65"/>
       <c r="P148" s="65"/>
       <c r="Q148" s="67"/>
@@ -6020,7 +6067,7 @@
       <c r="K149" s="75"/>
       <c r="L149" s="65"/>
       <c r="M149" s="65"/>
-      <c r="N149" s="101"/>
+      <c r="N149" s="92"/>
       <c r="O149" s="65"/>
       <c r="P149" s="65"/>
       <c r="Q149" s="67"/>
@@ -6041,7 +6088,7 @@
       <c r="K150" s="75"/>
       <c r="L150" s="65"/>
       <c r="M150" s="65"/>
-      <c r="N150" s="101"/>
+      <c r="N150" s="92"/>
       <c r="O150" s="65"/>
       <c r="P150" s="65"/>
       <c r="Q150" s="67"/>
@@ -6062,7 +6109,7 @@
       <c r="K151" s="75"/>
       <c r="L151" s="65"/>
       <c r="M151" s="65"/>
-      <c r="N151" s="101"/>
+      <c r="N151" s="92"/>
       <c r="O151" s="65"/>
       <c r="P151" s="65"/>
       <c r="Q151" s="67"/>
@@ -6083,7 +6130,7 @@
       <c r="K152" s="75"/>
       <c r="L152" s="65"/>
       <c r="M152" s="65"/>
-      <c r="N152" s="101"/>
+      <c r="N152" s="92"/>
       <c r="O152" s="65"/>
       <c r="P152" s="65"/>
       <c r="Q152" s="67"/>
@@ -6104,7 +6151,7 @@
       <c r="K153" s="75"/>
       <c r="L153" s="65"/>
       <c r="M153" s="65"/>
-      <c r="N153" s="101"/>
+      <c r="N153" s="92"/>
       <c r="O153" s="65"/>
       <c r="P153" s="65"/>
       <c r="Q153" s="67"/>
@@ -6125,7 +6172,7 @@
       <c r="K154" s="75"/>
       <c r="L154" s="65"/>
       <c r="M154" s="65"/>
-      <c r="N154" s="101"/>
+      <c r="N154" s="92"/>
       <c r="O154" s="65"/>
       <c r="P154" s="65"/>
       <c r="Q154" s="67"/>
@@ -6146,7 +6193,7 @@
       <c r="K155" s="75"/>
       <c r="L155" s="65"/>
       <c r="M155" s="65"/>
-      <c r="N155" s="101"/>
+      <c r="N155" s="92"/>
       <c r="O155" s="65"/>
       <c r="P155" s="65"/>
       <c r="Q155" s="67"/>
@@ -6167,7 +6214,7 @@
       <c r="K156" s="75"/>
       <c r="L156" s="65"/>
       <c r="M156" s="65"/>
-      <c r="N156" s="101"/>
+      <c r="N156" s="92"/>
       <c r="O156" s="65"/>
       <c r="P156" s="65"/>
       <c r="Q156" s="67"/>
@@ -6188,7 +6235,7 @@
       <c r="K157" s="75"/>
       <c r="L157" s="65"/>
       <c r="M157" s="65"/>
-      <c r="N157" s="101"/>
+      <c r="N157" s="92"/>
       <c r="O157" s="65"/>
       <c r="P157" s="65"/>
       <c r="Q157" s="67"/>
@@ -6209,7 +6256,7 @@
       <c r="K158" s="75"/>
       <c r="L158" s="65"/>
       <c r="M158" s="65"/>
-      <c r="N158" s="101"/>
+      <c r="N158" s="92"/>
       <c r="O158" s="65"/>
       <c r="P158" s="65"/>
       <c r="Q158" s="67"/>
@@ -6230,7 +6277,7 @@
       <c r="K159" s="75"/>
       <c r="L159" s="65"/>
       <c r="M159" s="65"/>
-      <c r="N159" s="101"/>
+      <c r="N159" s="92"/>
       <c r="O159" s="65"/>
       <c r="P159" s="65"/>
       <c r="Q159" s="67"/>
@@ -6251,7 +6298,7 @@
       <c r="K160" s="75"/>
       <c r="L160" s="65"/>
       <c r="M160" s="65"/>
-      <c r="N160" s="101"/>
+      <c r="N160" s="92"/>
       <c r="O160" s="65"/>
       <c r="P160" s="65"/>
       <c r="Q160" s="67"/>
@@ -6272,7 +6319,7 @@
       <c r="K161" s="75"/>
       <c r="L161" s="65"/>
       <c r="M161" s="65"/>
-      <c r="N161" s="101"/>
+      <c r="N161" s="92"/>
       <c r="O161" s="65"/>
       <c r="P161" s="65"/>
       <c r="Q161" s="67"/>
@@ -6293,7 +6340,7 @@
       <c r="K162" s="75"/>
       <c r="L162" s="65"/>
       <c r="M162" s="65"/>
-      <c r="N162" s="101"/>
+      <c r="N162" s="92"/>
       <c r="O162" s="65"/>
       <c r="P162" s="65"/>
       <c r="Q162" s="67"/>
@@ -6314,7 +6361,7 @@
       <c r="K163" s="75"/>
       <c r="L163" s="65"/>
       <c r="M163" s="65"/>
-      <c r="N163" s="101"/>
+      <c r="N163" s="92"/>
       <c r="O163" s="65"/>
       <c r="P163" s="65"/>
       <c r="Q163" s="67"/>
@@ -6322,19 +6369,19 @@
       <c r="W163" s="66"/>
     </row>
     <row r="164" spans="1:23">
-      <c r="N164" s="101"/>
+      <c r="N164" s="92"/>
     </row>
     <row r="165" spans="1:23">
-      <c r="N165" s="101"/>
+      <c r="N165" s="92"/>
     </row>
     <row r="166" spans="1:23">
-      <c r="N166" s="101"/>
+      <c r="N166" s="92"/>
     </row>
     <row r="167" spans="1:23">
-      <c r="N167" s="101"/>
+      <c r="N167" s="92"/>
     </row>
     <row r="168" spans="1:23">
-      <c r="N168" s="101"/>
+      <c r="N168" s="92"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
@@ -6354,10 +6401,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V2 V5:V6 V9:V13 V15:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V15:V1048576 V1:V2 V5:V6 V9:V13 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S20:S1048576 R1:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576 S21:S1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N77">
@@ -6380,6 +6427,7 @@
     <hyperlink ref="S3" r:id="rId13" tooltip="View this issue in JIRA"/>
     <hyperlink ref="S15" r:id="rId14" tooltip="View this issue in JIRA"/>
     <hyperlink ref="S16:S18" r:id="rId15" tooltip="View this issue in JIRA" display="DV-2263"/>
+    <hyperlink ref="S20" r:id="rId16" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-399"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -6417,55 +6465,55 @@
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="L1" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="M1" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="N1" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>84</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>85</v>
       </c>
       <c r="R1" s="36" t="s">
         <v>21</v>
@@ -6976,58 +7024,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="A1" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>96</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="24"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -7039,8 +7087,8 @@
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -7052,8 +7100,8 @@
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -7065,8 +7113,8 @@
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -7078,8 +7126,8 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -7091,8 +7139,8 @@
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -7104,8 +7152,8 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -7117,8 +7165,8 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -7179,73 +7227,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="A1" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>21</v>
@@ -7493,73 +7541,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="A1" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>21</v>
@@ -7807,73 +7855,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="A1" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>21</v>
@@ -8123,73 +8171,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="A1" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>21</v>
@@ -8434,28 +8482,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">

--- a/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_极光组.xlsx
+++ b/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_极光组.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ideaGit\Mogo_Doc\VersionRecords\Version 5.2.11 20170214\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14070" tabRatio="813"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14070" tabRatio="813" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="142">
   <si>
     <t>No</t>
   </si>
@@ -432,12 +437,70 @@
   <si>
     <t>JRYF-399</t>
   </si>
+  <si>
+    <t>5.2.11</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>mogo_trade_TaskTracker</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>JG组</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融申请时间限制</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.LoanBizReminder</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>LoanBizReminder</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.LoanBizReminder"}</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>每10分钟执行一次</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>如有错，需开发修复</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -600,6 +663,35 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -902,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1185,6 +1277,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1212,8 +1307,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1230,7 +1355,7 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="5" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1260,74 +1385,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1339,7 +1404,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1659,10 +1724,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -2925,7 +2990,7 @@
       <c r="R20" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="S20" s="103" t="s">
+      <c r="S20" s="94" t="s">
         <v>125</v>
       </c>
       <c r="T20" s="88"/>
@@ -6435,11 +6500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -6520,24 +6585,58 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="39"/>
+      <c r="A2" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="113"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="37"/>
@@ -7004,7 +7103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7024,19 +7123,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="22" t="s">
@@ -7074,8 +7173,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="24"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -7087,8 +7186,8 @@
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -7100,8 +7199,8 @@
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -7113,8 +7212,8 @@
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -7126,8 +7225,8 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -7139,8 +7238,8 @@
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -7152,8 +7251,8 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -7165,8 +7264,8 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -7204,7 +7303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7227,36 +7326,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -7518,7 +7617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7541,36 +7640,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -7832,7 +7931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7855,36 +7954,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -8146,7 +8245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8171,36 +8270,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -8462,7 +8561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
